--- a/sriramModel-nelson-atypical-patientID_10-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_10-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.032777106472087</v>
+        <v>4.036947487817339</v>
       </c>
       <c r="C2">
-        <v>4.036891525859427</v>
+        <v>4.036239614250348</v>
       </c>
       <c r="D2">
-        <v>4.027762942917157</v>
+        <v>4.033698953238963</v>
       </c>
       <c r="E2">
-        <v>4.028689391907255</v>
+        <v>4.038362858720511</v>
       </c>
       <c r="F2">
-        <v>4.041053424273716</v>
+        <v>4.039621661108077</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.064181602266905</v>
+        <v>4.07202884467917</v>
       </c>
       <c r="C3">
-        <v>4.071895277449594</v>
+        <v>4.071079519305838</v>
       </c>
       <c r="D3">
-        <v>4.054660730438078</v>
+        <v>4.06651334053092</v>
       </c>
       <c r="E3">
-        <v>4.056639501457029</v>
+        <v>4.074776175887203</v>
       </c>
       <c r="F3">
-        <v>4.079788144368436</v>
+        <v>4.077010188746563</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.094289316147675</v>
+        <v>4.105361607450467</v>
       </c>
       <c r="C4">
-        <v>4.105136541784248</v>
+        <v>4.104597878057548</v>
       </c>
       <c r="D4">
-        <v>4.080749112468387</v>
+        <v>4.098479993888945</v>
       </c>
       <c r="E4">
-        <v>4.083899297080515</v>
+        <v>4.109371510817392</v>
       </c>
       <c r="F4">
-        <v>4.116349435216694</v>
+        <v>4.112314319783035</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.12317304892908</v>
+        <v>4.137057393559123</v>
       </c>
       <c r="C5">
-        <v>4.136734507265041</v>
+        <v>4.13686933235418</v>
       </c>
       <c r="D5">
-        <v>4.106081388631206</v>
+        <v>4.129634521089023</v>
       </c>
       <c r="E5">
-        <v>4.110514689405978</v>
+        <v>4.14227296687911</v>
       </c>
       <c r="F5">
-        <v>4.150875253608007</v>
+        <v>4.145674535376563</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.150902628621485</v>
+        <v>4.167222423738134</v>
       </c>
       <c r="C6">
-        <v>4.166802813105256</v>
+        <v>4.167964653255747</v>
       </c>
       <c r="D6">
-        <v>4.130708676654331</v>
+        <v>4.16001079217264</v>
       </c>
       <c r="E6">
-        <v>4.136528606939087</v>
+        <v>4.173598268620591</v>
       </c>
       <c r="F6">
-        <v>4.183496786994834</v>
+        <v>4.177224791038331</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.177545149879291</v>
+        <v>4.195957626114843</v>
       </c>
       <c r="C7">
-        <v>4.19544948444756</v>
+        <v>4.197951130764537</v>
       </c>
       <c r="D7">
-        <v>4.154680096801593</v>
+        <v>4.189641127049847</v>
       </c>
       <c r="E7">
-        <v>4.161981187502904</v>
+        <v>4.203459129979498</v>
       </c>
       <c r="F7">
-        <v>4.214338820690362</v>
+        <v>4.207092063575165</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.203165068337129</v>
+        <v>4.223359028393133</v>
       </c>
       <c r="C8">
-        <v>4.222777381447434</v>
+        <v>4.226892964288357</v>
       </c>
       <c r="D8">
-        <v>4.178042513894762</v>
+        <v>4.218556503433693</v>
       </c>
       <c r="E8">
-        <v>4.186909917118689</v>
+        <v>4.231961102742384</v>
       </c>
       <c r="F8">
-        <v>4.243519962028542</v>
+        <v>4.235396696849867</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.227824284832523</v>
+        <v>4.249517968153973</v>
       </c>
       <c r="C9">
-        <v>4.248884462629076</v>
+        <v>4.254851237241252</v>
       </c>
       <c r="D9">
-        <v>4.200840753677583</v>
+        <v>4.246786568506053</v>
       </c>
       <c r="E9">
-        <v>4.211349716633964</v>
+        <v>4.259204130953211</v>
       </c>
       <c r="F9">
-        <v>4.271152963217836</v>
+        <v>4.262253140138595</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.251582177742637</v>
+        <v>4.274521301194968</v>
       </c>
       <c r="C10">
-        <v>4.273863945348356</v>
+        <v>4.281884056604074</v>
       </c>
       <c r="D10">
-        <v>4.223117723316437</v>
+        <v>4.274359591887598</v>
       </c>
       <c r="E10">
-        <v>4.235333039340926</v>
+        <v>4.285282870073007</v>
       </c>
       <c r="F10">
-        <v>4.297345020207077</v>
+        <v>4.287769959233048</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.274495790287083</v>
+        <v>4.298451624987254</v>
       </c>
       <c r="C11">
-        <v>4.297804508059801</v>
+        <v>4.308046740239098</v>
       </c>
       <c r="D11">
-        <v>4.24491446049437</v>
+        <v>4.301302564470793</v>
       </c>
       <c r="E11">
-        <v>4.258889987365338</v>
+        <v>4.310286848380231</v>
       </c>
       <c r="F11">
-        <v>4.322198035983916</v>
+        <v>4.312050103698641</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.296619914169603</v>
+        <v>4.321387499671536</v>
       </c>
       <c r="C12">
-        <v>4.320790515179054</v>
+        <v>4.333391943288409</v>
       </c>
       <c r="D12">
-        <v>4.266270155053025</v>
+        <v>4.327641281549791</v>
       </c>
       <c r="E12">
-        <v>4.28204838305788</v>
+        <v>4.33430066931296</v>
       </c>
       <c r="F12">
-        <v>4.345808864297017</v>
+        <v>4.335191250669592</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.318007164192991</v>
+        <v>4.343403631359925</v>
       </c>
       <c r="C13">
-        <v>4.34290221209111</v>
+        <v>4.35796975876986</v>
       </c>
       <c r="D13">
-        <v>4.287222195297598</v>
+        <v>4.353400401074722</v>
       </c>
       <c r="E13">
-        <v>4.304833883032825</v>
+        <v>4.357404265530767</v>
       </c>
       <c r="F13">
-        <v>4.368269546263631</v>
+        <v>4.35728605308209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.338708055780383</v>
+        <v>4.364571057154074</v>
       </c>
       <c r="C14">
-        <v>4.364215895587424</v>
+        <v>4.381827825513786</v>
       </c>
       <c r="D14">
-        <v>4.307806230727308</v>
+        <v>4.378603476285771</v>
       </c>
       <c r="E14">
-        <v>4.327270061581076</v>
+        <v>4.37967312190358</v>
       </c>
       <c r="F14">
-        <v>4.389667539465776</v>
+        <v>4.378422336751322</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.358771078892936</v>
+        <v>4.384957329332742</v>
       </c>
       <c r="C15">
-        <v>4.384804074861487</v>
+        <v>4.405011450825767</v>
       </c>
       <c r="D15">
-        <v>4.328056213020965</v>
+        <v>4.40327299603091</v>
       </c>
       <c r="E15">
-        <v>4.349378473940916</v>
+        <v>4.401178471445323</v>
       </c>
       <c r="F15">
-        <v>4.410085936109875</v>
+        <v>4.398683296032107</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.378242762083706</v>
+        <v>4.404626673396642</v>
       </c>
       <c r="C16">
-        <v>4.404735625744436</v>
+        <v>4.427563705534614</v>
       </c>
       <c r="D16">
-        <v>4.348004435338274</v>
+        <v>4.427430428433285</v>
       </c>
       <c r="E16">
-        <v>4.371178847256188</v>
+        <v>4.421987475565437</v>
       </c>
       <c r="F16">
-        <v>4.42960366906931</v>
+        <v>4.418147723044653</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.397167761484158</v>
+        <v>4.423640156226535</v>
       </c>
       <c r="C17">
-        <v>4.424075934925654</v>
+        <v>4.449525538261116</v>
       </c>
       <c r="D17">
-        <v>4.367681588430044</v>
+        <v>4.451096216055104</v>
       </c>
       <c r="E17">
-        <v>4.392689086701817</v>
+        <v>4.442163398305634</v>
       </c>
       <c r="F17">
-        <v>4.448295706660771</v>
+        <v>4.436890188360306</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.41558893568505</v>
+        <v>4.442055833745161</v>
       </c>
       <c r="C18">
-        <v>4.442887031901056</v>
+        <v>4.470935860760492</v>
       </c>
       <c r="D18">
-        <v>4.387116782982085</v>
+        <v>4.474289869179275</v>
       </c>
       <c r="E18">
-        <v>4.413925395185895</v>
+        <v>4.461765774492592</v>
       </c>
       <c r="F18">
-        <v>4.466233237301041</v>
+        <v>4.454981256055836</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.433547411676955</v>
+        <v>4.459928893400074</v>
       </c>
       <c r="C19">
-        <v>4.461227708520777</v>
+        <v>4.49183165390062</v>
       </c>
       <c r="D19">
-        <v>4.406337583866479</v>
+        <v>4.497029992249861</v>
       </c>
       <c r="E19">
-        <v>4.434902319176441</v>
+        <v>4.480850581253395</v>
       </c>
       <c r="F19">
-        <v>4.483483844685979</v>
+        <v>4.472487631570953</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.451082650278906</v>
+        <v>4.477311797562624</v>
       </c>
       <c r="C20">
-        <v>4.47915362660591</v>
+        <v>4.51224803576843</v>
       </c>
       <c r="D20">
-        <v>4.425370035266347</v>
+        <v>4.519334313219117</v>
       </c>
       <c r="E20">
-        <v>4.455632839521179</v>
+        <v>4.499470385805061</v>
       </c>
       <c r="F20">
-        <v>4.500111673764676</v>
+        <v>4.48947236421285</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.468232499526001</v>
+        <v>4.494254405517694</v>
       </c>
       <c r="C21">
-        <v>4.496717413720773</v>
+        <v>4.532218371612337</v>
       </c>
       <c r="D21">
-        <v>4.444238687917373</v>
+        <v>4.541219727388592</v>
       </c>
       <c r="E21">
-        <v>4.476128445522616</v>
+        <v>4.517674458215475</v>
       </c>
       <c r="F21">
-        <v>4.51617758772827</v>
+        <v>4.505994964732742</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.485033252331076</v>
+        <v>4.510804104116995</v>
       </c>
       <c r="C22">
-        <v>4.513968746837603</v>
+        <v>4.551774310205649</v>
       </c>
       <c r="D22">
-        <v>4.462966627047946</v>
+        <v>4.562702300042926</v>
       </c>
       <c r="E22">
-        <v>4.496399211109575</v>
+        <v>4.53550884571033</v>
       </c>
       <c r="F22">
-        <v>4.531739316295352</v>
+        <v>4.522111598676513</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.501519701992061</v>
+        <v>4.527005923644467</v>
       </c>
       <c r="C23">
-        <v>4.530954423688009</v>
+        <v>4.570945900365363</v>
       </c>
       <c r="D23">
-        <v>4.481575486633151</v>
+        <v>4.583797306882297</v>
       </c>
       <c r="E23">
-        <v>4.516453873094485</v>
+        <v>4.553016665693275</v>
       </c>
       <c r="F23">
-        <v>4.546851595598462</v>
+        <v>4.537875153328347</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.517725191287338</v>
+        <v>4.542902647485266</v>
       </c>
       <c r="C24">
-        <v>4.547718421622919</v>
+        <v>4.589761618415311</v>
       </c>
       <c r="D24">
-        <v>4.500085465091631</v>
+        <v>4.604519258626504</v>
       </c>
       <c r="E24">
-        <v>4.536299895764692</v>
+        <v>4.570238031044994</v>
       </c>
       <c r="F24">
-        <v>4.561566299941877</v>
+        <v>4.553335449451295</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.533681659076725</v>
+        <v>4.558534924549783</v>
       </c>
       <c r="C25">
-        <v>4.56430194205755</v>
+        <v>4.608248465073419</v>
       </c>
       <c r="D25">
-        <v>4.51851533319666</v>
+        <v>4.624881928273772</v>
       </c>
       <c r="E25">
-        <v>4.55594354409282</v>
+        <v>4.587210364826474</v>
       </c>
       <c r="F25">
-        <v>4.575932565800822</v>
+        <v>4.568539274873252</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.549419680943094</v>
+        <v>4.573941363810579</v>
       </c>
       <c r="C26">
-        <v>4.580743445353215</v>
+        <v>4.626432012560572</v>
       </c>
       <c r="D26">
-        <v>4.536882444990572</v>
+        <v>4.644898380264794</v>
       </c>
       <c r="E26">
-        <v>4.575389938343145</v>
+        <v>4.603968343271671</v>
       </c>
       <c r="F26">
-        <v>4.589996907942198</v>
+        <v>4.583530566960083</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.564968504526672</v>
+        <v>4.589158635715624</v>
       </c>
       <c r="C27">
-        <v>4.597078670510537</v>
+        <v>4.644336463099701</v>
       </c>
       <c r="D27">
-        <v>4.555202740055514</v>
+        <v>4.664580989013756</v>
       </c>
       <c r="E27">
-        <v>4.59464311990011</v>
+        <v>4.620544088630356</v>
       </c>
       <c r="F27">
-        <v>4.603803326931867</v>
+        <v>4.598350475827229</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.580356079550207</v>
+        <v>4.604221562809599</v>
       </c>
       <c r="C28">
-        <v>4.613340642844097</v>
+        <v>4.661984720923808</v>
       </c>
       <c r="D28">
-        <v>4.573490740446112</v>
+        <v>4.683941460057819</v>
       </c>
       <c r="E28">
-        <v>4.613706111941137</v>
+        <v>4.636967151649563</v>
       </c>
       <c r="F28">
-        <v>4.617393411426484</v>
+        <v>4.613037474474439</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.595609081817819</v>
+        <v>4.61916320390959</v>
       </c>
       <c r="C29">
-        <v>4.629559669274123</v>
+        <v>4.67939841653854</v>
       </c>
       <c r="D29">
-        <v>4.591759543750135</v>
+        <v>4.702990847495216</v>
       </c>
       <c r="E29">
-        <v>4.632580975421936</v>
+        <v>4.653264661364905</v>
       </c>
       <c r="F29">
-        <v>4.630806431158082</v>
+        <v>4.627627467156072</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.610752930379438</v>
+        <v>4.634014941361652</v>
       </c>
       <c r="C30">
-        <v>4.645763321692873</v>
+        <v>4.696597988979658</v>
       </c>
       <c r="D30">
-        <v>4.610020814172488</v>
+        <v>4.72173956855609</v>
       </c>
       <c r="E30">
-        <v>4.651268866547507</v>
+        <v>4.669461363374326</v>
       </c>
       <c r="F30">
-        <v>4.644079422893762</v>
+        <v>4.642153826587603</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.625811796799368</v>
+        <v>4.648806553903691</v>
       </c>
       <c r="C31">
-        <v>4.661976409079859</v>
+        <v>4.71360269584518</v>
       </c>
       <c r="D31">
-        <v>4.628284766180134</v>
+        <v>4.740197420684799</v>
       </c>
       <c r="E31">
-        <v>4.669770091235267</v>
+        <v>4.685579713468718</v>
       </c>
       <c r="F31">
-        <v>4.657247268767621</v>
+        <v>4.656647526510545</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.640808602348446</v>
+        <v>4.66356628942474</v>
       </c>
       <c r="C32">
-        <v>4.678220939289055</v>
+        <v>4.730430670308474</v>
       </c>
       <c r="D32">
-        <v>4.646560144079333</v>
+        <v>4.758373594940936</v>
       </c>
       <c r="E32">
-        <v>4.688084156726967</v>
+        <v>4.701639937545352</v>
       </c>
       <c r="F32">
-        <v>4.670342766789316</v>
+        <v>4.6711371461204</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.655765005976168</v>
+        <v>4.678320942757294</v>
       </c>
       <c r="C33">
-        <v>4.694516071712129</v>
+        <v>4.747098954931474</v>
       </c>
       <c r="D33">
-        <v>4.664854194370599</v>
+        <v>4.776276688659466</v>
       </c>
       <c r="E33">
-        <v>4.706209819360404</v>
+        <v>4.717660095601015</v>
       </c>
       <c r="F33">
-        <v>4.683396693225498</v>
+        <v>4.685648980268133</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.67070137850732</v>
+        <v>4.693095910988856</v>
       </c>
       <c r="C34">
-        <v>4.710878062330975</v>
+        <v>4.76362353911778</v>
       </c>
       <c r="D34">
-        <v>4.683172624967555</v>
+        <v>4.793914714639831</v>
       </c>
       <c r="E34">
-        <v>4.724145132947752</v>
+        <v>4.733656114690608</v>
       </c>
       <c r="F34">
-        <v>4.69643785641814</v>
+        <v>4.700207059253392</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.685636760953249</v>
+        <v>4.707915252784244</v>
       </c>
       <c r="C35">
-        <v>4.727320203004116</v>
+        <v>4.780019387503148</v>
       </c>
       <c r="D35">
-        <v>4.701519568129006</v>
+        <v>4.811295109077093</v>
       </c>
       <c r="E35">
-        <v>4.741887496014018</v>
+        <v>4.74964186380258</v>
       </c>
       <c r="F35">
-        <v>4.709493141440757</v>
+        <v>4.714833198792679</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.700588810827015</v>
+        <v>4.722801742877965</v>
       </c>
       <c r="C36">
-        <v>4.743852757176063</v>
+        <v>4.796300463633618</v>
       </c>
       <c r="D36">
-        <v>4.719897549160741</v>
+        <v>4.828424738026587</v>
       </c>
       <c r="E36">
-        <v>4.759433692490434</v>
+        <v>4.765629154308177</v>
       </c>
       <c r="F36">
-        <v>4.722587544791042</v>
+        <v>4.729547060773315</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.715573718796133</v>
+        <v>4.737776917040035</v>
       </c>
       <c r="C37">
-        <v>4.760482894545442</v>
+        <v>4.812479751485281</v>
       </c>
       <c r="D37">
-        <v>4.738307429816031</v>
+        <v>4.845309901176433</v>
       </c>
       <c r="E37">
-        <v>4.776779934969341</v>
+        <v>4.781627803824738</v>
       </c>
       <c r="F37">
-        <v>4.735744197654862</v>
+        <v>4.74436613715073</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.7306061107496</v>
+        <v>4.752861108587251</v>
       </c>
       <c r="C38">
-        <v>4.777214627563309</v>
+        <v>4.828569270281532</v>
       </c>
       <c r="D38">
-        <v>4.756748338132536</v>
+        <v>4.861956333504915</v>
       </c>
       <c r="E38">
-        <v>4.793921906083233</v>
+        <v>4.79764565642356</v>
       </c>
       <c r="F38">
-        <v>4.748984378955231</v>
+        <v>4.759305827004232</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.745698923088692</v>
+        <v>4.768073475373185</v>
       </c>
       <c r="C39">
-        <v>4.794048752478639</v>
+        <v>4.844580084411008</v>
       </c>
       <c r="D39">
-        <v>4.775217601611256</v>
+        <v>4.878369205402757</v>
       </c>
       <c r="E39">
-        <v>4.810854794593199</v>
+        <v>4.813688607637324</v>
       </c>
       <c r="F39">
-        <v>4.762327513647741</v>
+        <v>4.774379394855215</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.76086324899207</v>
+        <v>4.783432013648372</v>
       </c>
       <c r="C40">
-        <v>4.810982800670884</v>
+        <v>4.860522309072493</v>
       </c>
       <c r="D40">
-        <v>4.793710686586935</v>
+        <v>4.894553120878655</v>
       </c>
       <c r="E40">
-        <v>4.827573331944046</v>
+        <v>4.829760637398174</v>
       </c>
       <c r="F40">
-        <v>4.775791147134261</v>
+        <v>4.789598019842084</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.776108166742397</v>
+        <v>4.798953557348793</v>
       </c>
       <c r="C41">
-        <v>4.828010999813132</v>
+        <v>4.87640510998289</v>
       </c>
       <c r="D41">
-        <v>4.812221126024181</v>
+        <v>4.910512112714352</v>
       </c>
       <c r="E41">
-        <v>4.84407182796039</v>
+        <v>4.845863818845935</v>
       </c>
       <c r="F41">
-        <v>4.789390914244801</v>
+        <v>4.804970768047457</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.791440521326122</v>
+        <v>4.814653757482913</v>
       </c>
       <c r="C42">
-        <v>4.845124251737934</v>
+        <v>4.892236687507569</v>
       </c>
       <c r="D42">
-        <v>4.830740429046726</v>
+        <v>4.926249634689837</v>
       </c>
       <c r="E42">
-        <v>4.860344203003815</v>
+        <v>4.861998331880107</v>
       </c>
       <c r="F42">
-        <v>4.803140472863842</v>
+        <v>4.820504592838723</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.806864689945017</v>
+        <v>4.83054703930095</v>
       </c>
       <c r="C43">
-        <v>4.862310130275528</v>
+        <v>4.908024258523065</v>
       </c>
       <c r="D43">
-        <v>4.849257992188596</v>
+        <v>4.941768552503635</v>
       </c>
       <c r="E43">
-        <v>4.876384017963881</v>
+        <v>4.878162486932364</v>
       </c>
       <c r="F43">
-        <v>4.817051413367786</v>
+        <v>4.836204299333226</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.822382320000762</v>
+        <v>4.84664653072367</v>
       </c>
       <c r="C44">
-        <v>4.879552902334951</v>
+        <v>4.923774025965349</v>
       </c>
       <c r="D44">
-        <v>4.867761014385733</v>
+        <v>4.957071132718018</v>
       </c>
       <c r="E44">
-        <v>4.892184504507726</v>
+        <v>4.894352715232216</v>
       </c>
       <c r="F44">
-        <v>4.831133140466515</v>
+        <v>4.852072517311028</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.837992045481184</v>
+        <v>4.862963957846963</v>
       </c>
       <c r="C45">
-        <v>4.896833575958246</v>
+        <v>4.939491135237099</v>
       </c>
       <c r="D45">
-        <v>4.886234412980353</v>
+        <v>4.972159028052758</v>
       </c>
       <c r="E45">
-        <v>4.907738594371173</v>
+        <v>4.910563589909414</v>
       </c>
       <c r="F45">
-        <v>4.845392706978367</v>
+        <v>4.868109671740967</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.853689200321684</v>
+        <v>4.879509499397415</v>
       </c>
       <c r="C46">
-        <v>4.914129972229384</v>
+        <v>4.955179613606893</v>
       </c>
       <c r="D46">
-        <v>4.904660735412166</v>
+        <v>4.987033260559</v>
       </c>
       <c r="E46">
-        <v>4.92303894318323</v>
+        <v>4.926787826405571</v>
       </c>
       <c r="F46">
-        <v>4.859834598335194</v>
+        <v>4.884313930281624</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.869465502859546</v>
+        <v>4.896291593084177</v>
       </c>
       <c r="C47">
-        <v>4.93141684217921</v>
+        <v>4.970842290894276</v>
       </c>
       <c r="D47">
-        <v>4.923020084212365</v>
+        <v>5.001694203470126</v>
       </c>
       <c r="E47">
-        <v>4.938077956098098</v>
+        <v>4.943016289317351</v>
       </c>
       <c r="F47">
-        <v>4.874460464443365</v>
+        <v>4.900681147623644</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.885308797446765</v>
+        <v>4.913316684740113</v>
       </c>
       <c r="C48">
-        <v>4.948666026544702</v>
+        <v>4.986480698405524</v>
       </c>
       <c r="D48">
-        <v>4.941290056575189</v>
+        <v>5.016141561736693</v>
       </c>
       <c r="E48">
-        <v>4.952847812313784</v>
+        <v>4.959238003056208</v>
       </c>
       <c r="F48">
-        <v>4.889268773287165</v>
+        <v>4.91720479357168</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.901202822225788</v>
+        <v>4.930588907091887</v>
       </c>
       <c r="C49">
-        <v>4.965846621936489</v>
+        <v>5.002094942982614</v>
       </c>
       <c r="D49">
-        <v>4.959445705802264</v>
+        <v>5.030374349465646</v>
       </c>
       <c r="E49">
-        <v>4.967340485161817</v>
+        <v>4.975440158925395</v>
       </c>
       <c r="F49">
-        <v>4.904254375559035</v>
+        <v>4.9338758737433</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.917127032107596</v>
+        <v>4.948109694104609</v>
       </c>
       <c r="C50">
-        <v>4.982925207859352</v>
+        <v>5.01768354958887</v>
       </c>
       <c r="D50">
-        <v>4.97745953261919</v>
+        <v>5.044390867412921</v>
       </c>
       <c r="E50">
-        <v>4.981547763081639</v>
+        <v>4.991608132703369</v>
       </c>
       <c r="F50">
-        <v>4.919407979718323</v>
+        <v>4.950682852025807</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.933056510173906</v>
+        <v>4.965877350801661</v>
       </c>
       <c r="C51">
-        <v>4.999866116718644</v>
+        <v>5.033243262268347</v>
       </c>
       <c r="D51">
-        <v>4.995301517807364</v>
+        <v>5.058188680859903</v>
       </c>
       <c r="E51">
-        <v>4.995461269752659</v>
+        <v>5.007725509874838</v>
       </c>
       <c r="F51">
-        <v>4.934715521287733</v>
+        <v>4.967611558169207</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.94896199019964</v>
+        <v>4.983886454649678</v>
       </c>
       <c r="C52">
-        <v>5.016631676517613</v>
+        <v>5.048768824276589</v>
       </c>
       <c r="D52">
-        <v>5.012939202838761</v>
+        <v>5.071764597791421</v>
       </c>
       <c r="E52">
-        <v>5.009072482597128</v>
+        <v>5.023774119534001</v>
       </c>
       <c r="F52">
-        <v>4.95015742865741</v>
+        <v>4.984645099558104</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.964832674775817</v>
+        <v>5.002127228412262</v>
       </c>
       <c r="C53">
-        <v>5.03320665982265</v>
+        <v>5.064252713542889</v>
       </c>
       <c r="D53">
-        <v>5.030354733259244</v>
+        <v>5.085114648031442</v>
       </c>
       <c r="E53">
-        <v>5.022380541801367</v>
+        <v>5.039734080906383</v>
       </c>
       <c r="F53">
-        <v>4.965749119038082</v>
+        <v>5.001763766860518</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.980736675683244</v>
+        <v>5.020584885293212</v>
       </c>
       <c r="C54">
-        <v>5.049661562187995</v>
+        <v>5.079684851362979</v>
       </c>
       <c r="D54">
-        <v>5.047588951481853</v>
+        <v>5.098234066441688</v>
       </c>
       <c r="E54">
-        <v>5.035413474013033</v>
+        <v>5.055583866570724</v>
       </c>
       <c r="F54">
-        <v>4.981652493162448</v>
+        <v>5.018944950533514</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.996740089698838</v>
+        <v>5.039238903229278</v>
       </c>
       <c r="C55">
-        <v>5.066065681336717</v>
+        <v>5.095052301409645</v>
       </c>
       <c r="D55">
-        <v>5.064679149491346</v>
+        <v>5.111117278817842</v>
       </c>
       <c r="E55">
-        <v>5.04820132799413</v>
+        <v>5.071300386603246</v>
       </c>
       <c r="F55">
-        <v>4.998029684689477</v>
+        <v>5.036163071515126</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.012883628119712</v>
+        <v>5.058062292904427</v>
       </c>
       <c r="C56">
-        <v>5.082462961657698</v>
+        <v>5.110338983650681</v>
       </c>
       <c r="D56">
-        <v>5.081641858876405</v>
+        <v>5.12375789732237</v>
       </c>
       <c r="E56">
-        <v>5.060768297128578</v>
+        <v>5.086859097405067</v>
       </c>
       <c r="F56">
-        <v>5.014996047948525</v>
+        <v>5.053389537117352</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.029184436284604</v>
+        <v>5.077020945916385</v>
       </c>
       <c r="C57">
-        <v>5.098874627282076</v>
+        <v>5.125525438809292</v>
       </c>
       <c r="D57">
-        <v>5.098474726913467</v>
+        <v>5.136148719622407</v>
       </c>
       <c r="E57">
-        <v>5.073132933884221</v>
+        <v>5.102234138690417</v>
       </c>
       <c r="F57">
-        <v>5.032618283650753</v>
+        <v>5.070592731026555</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.045638407569126</v>
+        <v>5.096073129538013</v>
       </c>
       <c r="C58">
-        <v>5.115301738598422</v>
+        <v>5.140588694385064</v>
       </c>
       <c r="D58">
-        <v>5.115158818642091</v>
+        <v>5.148281736485528</v>
       </c>
       <c r="E58">
-        <v>5.08530848717117</v>
+        <v>5.117398501635352</v>
       </c>
       <c r="F58">
-        <v>5.050913786212696</v>
+        <v>5.087738051598504</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.062222977739571</v>
+        <v>5.115169211876928</v>
       </c>
       <c r="C59">
-        <v>5.131727873586756</v>
+        <v>5.1555022618255</v>
       </c>
       <c r="D59">
-        <v>5.131661185613188</v>
+        <v>5.160148149970619</v>
       </c>
       <c r="E59">
-        <v>5.097303409258782</v>
+        <v>5.132324230487801</v>
       </c>
       <c r="F59">
-        <v>5.069852019277872</v>
+        <v>5.104788020207904</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.078900224915282</v>
+        <v>5.134251700036994</v>
       </c>
       <c r="C60">
-        <v>5.148121884390333</v>
+        <v>5.170236301829299</v>
       </c>
       <c r="D60">
-        <v>5.147937816270011</v>
+        <v>5.17173840303321</v>
       </c>
       <c r="E60">
-        <v>5.109121645031208</v>
+        <v>5.146982658698966</v>
       </c>
       <c r="F60">
-        <v>5.089358458804396</v>
+        <v>5.121702474030061</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.095620129624595</v>
+        <v>5.153255702353368</v>
       </c>
       <c r="C61">
-        <v>5.16444065186373</v>
+        <v>5.184757964892771</v>
       </c>
       <c r="D61">
-        <v>5.163936751064109</v>
+        <v>5.183042220808795</v>
       </c>
       <c r="E61">
-        <v>5.120762911271605</v>
+        <v>5.161344679148899</v>
       </c>
       <c r="F61">
-        <v>5.109321139354075</v>
+        <v>5.138438859018585</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.1123238364509</v>
+        <v>5.1721098572261</v>
       </c>
       <c r="C62">
-        <v>5.1806318102267</v>
+        <v>5.199031891865685</v>
       </c>
       <c r="D62">
-        <v>5.179601259582324</v>
+        <v>5.194048664006396</v>
       </c>
       <c r="E62">
-        <v>5.132223024355785</v>
+        <v>5.175381039490292</v>
       </c>
       <c r="F62">
-        <v>5.129599328653465</v>
+        <v>5.154952635025846</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.128946776323698</v>
+        <v>5.190737703924024</v>
       </c>
       <c r="C63">
-        <v>5.196636380309497</v>
+        <v>5.21302084675403</v>
       </c>
       <c r="D63">
-        <v>5.194872902975038</v>
+        <v>5.204746195071181</v>
       </c>
       <c r="E63">
-        <v>5.143494363464925</v>
+        <v>5.189062664976595</v>
       </c>
       <c r="F63">
-        <v>5.150033508098475</v>
+        <v>5.171197798033977</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.145421446734137</v>
+        <v>5.209059493422342</v>
       </c>
       <c r="C64">
-        <v>5.212391278385102</v>
+        <v>5.226686434994664</v>
       </c>
       <c r="D64">
-        <v>5.209694295491246</v>
+        <v>5.215122756147657</v>
       </c>
       <c r="E64">
-        <v>5.154566090153712</v>
+        <v>5.202361007324257</v>
       </c>
       <c r="F64">
-        <v>5.170455528470914</v>
+        <v>5.187127506827768</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.161679893233048</v>
+        <v>5.226994289280618</v>
       </c>
       <c r="C65">
-        <v>5.227831640107611</v>
+        <v>5.239989865433906</v>
       </c>
       <c r="D65">
-        <v>5.224011436849114</v>
+        <v>5.225165858951998</v>
       </c>
       <c r="E65">
-        <v>5.165424480804651</v>
+        <v>5.215248370075377</v>
       </c>
       <c r="F65">
-        <v>5.190697898542972</v>
+        <v>5.202694826532081</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.177655831933434</v>
+        <v>5.244462229856842</v>
       </c>
       <c r="C66">
-        <v>5.242892902988581</v>
+        <v>5.252892710699778</v>
       </c>
       <c r="D66">
-        <v>5.237775514100927</v>
+        <v>5.234862684812834</v>
       </c>
       <c r="E66">
-        <v>5.176053328688609</v>
+        <v>5.22769823540026</v>
       </c>
       <c r="F66">
-        <v>5.210601426538617</v>
+        <v>5.217853493305553</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.193286175704747</v>
+        <v>5.26138669317855</v>
       </c>
       <c r="C67">
-        <v>5.257512618009569</v>
+        <v>5.26535763117199</v>
       </c>
       <c r="D67">
-        <v>5.250944127600937</v>
+        <v>5.244200194803748</v>
       </c>
       <c r="E67">
-        <v>5.186434307232874</v>
+        <v>5.239685575914735</v>
       </c>
       <c r="F67">
-        <v>5.230020813006129</v>
+        <v>5.232558702193396</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.208512253241115</v>
+        <v>5.277696289960286</v>
       </c>
       <c r="C68">
-        <v>5.271631964057669</v>
+        <v>5.277349027460511</v>
       </c>
       <c r="D68">
-        <v>5.263481964724466</v>
+        <v>5.253165247107772</v>
       </c>
       <c r="E68">
-        <v>5.196547350434117</v>
+        <v>5.251187127527871</v>
       </c>
       <c r="F68">
-        <v>5.248828195902536</v>
+        <v>5.246767878105964</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.223280686308096</v>
+        <v>5.293326503583738</v>
       </c>
       <c r="C69">
-        <v>5.285196912158725</v>
+        <v>5.28883360871983</v>
       </c>
       <c r="D69">
-        <v>5.275360988796669</v>
+        <v>5.261744718926249</v>
       </c>
       <c r="E69">
-        <v>5.206371078656275</v>
+        <v>5.262181614843571</v>
       </c>
       <c r="F69">
-        <v>5.266914833412098</v>
+        <v>5.260441356348489</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.237543810582253</v>
+        <v>5.3082208582349</v>
       </c>
       <c r="C70">
-        <v>5.298159136629466</v>
+        <v>5.299780858758266</v>
       </c>
       <c r="D70">
-        <v>5.286560234294696</v>
+        <v>5.269925631827153</v>
       </c>
       <c r="E70">
-        <v>5.215883248259471</v>
+        <v>5.272649927827989</v>
       </c>
       <c r="F70">
-        <v>5.284191349744866</v>
+        <v>5.273542939307149</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.251259939969871</v>
+        <v>5.322331643083777</v>
       </c>
       <c r="C71">
-        <v>5.310476543662559</v>
+        <v>5.310163382553387</v>
       </c>
       <c r="D71">
-        <v>5.297065326062866</v>
+        <v>5.277695278562183</v>
       </c>
       <c r="E71">
-        <v>5.225061217019668</v>
+        <v>5.282575247541143</v>
       </c>
       <c r="F71">
-        <v>5.300586932280114</v>
+        <v>5.286040331448212</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.264393376221943</v>
+        <v>5.335620179452632</v>
       </c>
       <c r="C72">
-        <v>5.32211353737223</v>
+        <v>5.319957150591802</v>
       </c>
       <c r="D72">
-        <v>5.306867822375628</v>
+        <v>5.285041348718615</v>
       </c>
       <c r="E72">
-        <v>5.233882430412492</v>
+        <v>5.291943119491757</v>
       </c>
       <c r="F72">
-        <v>5.316047863251096</v>
+        <v>5.297905418620349</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.276914223374694</v>
+        <v>5.348056699588374</v>
       </c>
       <c r="C73">
-        <v>5.333041072125549</v>
+        <v>5.329141641447013</v>
       </c>
       <c r="D73">
-        <v>5.315964471416007</v>
+        <v>5.291952051020883</v>
       </c>
       <c r="E73">
-        <v>5.242324912144888</v>
+        <v>5.300741473504884</v>
       </c>
       <c r="F73">
-        <v>5.3305356956779</v>
+        <v>5.309114399932987</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.288798120174583</v>
+        <v>5.359619924627918</v>
       </c>
       <c r="C74">
-        <v>5.343236475770975</v>
+        <v>5.337699890060745</v>
       </c>
       <c r="D74">
-        <v>5.32435644921069</v>
+        <v>5.298416227232101</v>
       </c>
       <c r="E74">
-        <v>5.250367742364146</v>
+        <v>5.308960601673502</v>
       </c>
       <c r="F74">
-        <v>5.344025298646342</v>
+        <v>5.319647797317048</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.300025880394822</v>
+        <v>5.370296424741518</v>
       </c>
       <c r="C75">
-        <v>5.352683127261274</v>
+        <v>5.345618455715595</v>
       </c>
       <c r="D75">
-        <v>5.332048629409148</v>
+        <v>5.304423462459612</v>
       </c>
       <c r="E75">
-        <v>5.257991493005592</v>
+        <v>5.316593096774946</v>
       </c>
       <c r="F75">
-        <v>5.356502913523502</v>
+        <v>5.329490353770751</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.31058307519776</v>
+        <v>5.380079845092429</v>
       </c>
       <c r="C76">
-        <v>5.361370027499239</v>
+        <v>5.352887317861597</v>
       </c>
       <c r="D76">
-        <v>5.339048911995299</v>
+        <v>5.309964184871233</v>
       </c>
       <c r="E76">
-        <v>5.265178606394567</v>
+        <v>5.32363376118357</v>
       </c>
       <c r="F76">
-        <v>5.367964341346712</v>
+        <v>5.338630852886958</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.320459601340938</v>
+        <v>5.38897006585414</v>
       </c>
       <c r="C77">
-        <v>5.369291294097252</v>
+        <v>5.359499723253057</v>
       </c>
       <c r="D77">
-        <v>5.345367624423917</v>
+        <v>5.315029754577697</v>
       </c>
       <c r="E77">
-        <v>5.271913689930572</v>
+        <v>5.330079490788319</v>
       </c>
       <c r="F77">
-        <v>5.378413293913956</v>
+        <v>5.347061870463369</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.329649245614472</v>
+        <v>5.396972351091737</v>
       </c>
       <c r="C78">
-        <v>5.376445624268506</v>
+        <v>5.365451994768915</v>
       </c>
       <c r="D78">
-        <v>5.351017003629059</v>
+        <v>5.319612540612629</v>
       </c>
       <c r="E78">
-        <v>5.278183719097974</v>
+        <v>5.335929144581996</v>
       </c>
       <c r="F78">
-        <v>5.387859921246568</v>
+        <v>5.354779486975273</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.338149255051847</v>
+        <v>5.404096525526122</v>
       </c>
       <c r="C79">
-        <v>5.382835748817959</v>
+        <v>5.370743302791899</v>
       </c>
       <c r="D79">
-        <v>5.35601074790517</v>
+        <v>5.323705985793218</v>
       </c>
       <c r="E79">
-        <v>5.283978139133068</v>
+        <v>5.341183400166319</v>
       </c>
       <c r="F79">
-        <v>5.396319544311885</v>
+        <v>5.361782978577637</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.345959926422158</v>
+        <v>5.410356205410104</v>
       </c>
       <c r="C80">
-        <v>5.388467896545588</v>
+        <v>5.375375424233546</v>
       </c>
       <c r="D80">
-        <v>5.360363651007849</v>
+        <v>5.327304659039861</v>
       </c>
       <c r="E80">
-        <v>5.289288875771604</v>
+        <v>5.345844602961092</v>
       </c>
       <c r="F80">
-        <v>5.403811587347741</v>
+        <v>5.368074498199603</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.35308422068096</v>
+        <v>5.415768100919644</v>
       </c>
       <c r="C81">
-        <v>5.393351282667125</v>
+        <v>5.379352494283009</v>
       </c>
       <c r="D81">
-        <v>5.364091302839847</v>
+        <v>5.330404295126924</v>
       </c>
       <c r="E81">
-        <v>5.294110267368572</v>
+        <v>5.349916615420248</v>
       </c>
       <c r="F81">
-        <v>5.410358654519208</v>
+        <v>5.37365875814234</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.359527409267508</v>
+        <v>5.420351388170178</v>
       </c>
       <c r="C82">
-        <v>5.397497640898194</v>
+        <v>5.38268075508648</v>
       </c>
       <c r="D82">
-        <v>5.36720983452244</v>
+        <v>5.333001821297747</v>
       </c>
       <c r="E82">
-        <v>5.298438933458431</v>
+        <v>5.353404667626889</v>
       </c>
       <c r="F82">
-        <v>5.415985748599065</v>
+        <v>5.378542725014489</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.365296740852153</v>
+        <v>5.424127156826149</v>
       </c>
       <c r="C83">
-        <v>5.40092079448372</v>
+        <v>5.385368308736141</v>
       </c>
       <c r="D83">
-        <v>5.369735710609275</v>
+        <v>5.335095371693142</v>
       </c>
       <c r="E83">
-        <v>5.302273603603965</v>
+        <v>5.356315211329481</v>
       </c>
       <c r="F83">
-        <v>5.420719633139844</v>
+        <v>5.382735322660939</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.370401150714111</v>
+        <v>5.427117943468738</v>
       </c>
       <c r="C84">
-        <v>5.403636266763057</v>
+        <v>5.38742487976341</v>
       </c>
       <c r="D84">
-        <v>5.371685565462258</v>
+        <v>5.336684290311489</v>
       </c>
       <c r="E84">
-        <v>5.305614917607476</v>
+        <v>5.358655781345174</v>
       </c>
       <c r="F84">
-        <v>5.424588304829558</v>
+        <v>5.386247160171877</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.374850991825937</v>
+        <v>5.429347329483118</v>
       </c>
       <c r="C85">
-        <v>5.405660926426749</v>
+        <v>5.388861589728575</v>
       </c>
       <c r="D85">
-        <v>5.373076072733117</v>
+        <v>5.337769123435255</v>
       </c>
       <c r="E85">
-        <v>5.308465216808224</v>
+        <v>5.360434858820703</v>
       </c>
       <c r="F85">
-        <v>5.427620555857417</v>
+        <v>5.3890902810695</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.378657721772917</v>
+        <v>5.430839594960984</v>
       </c>
       <c r="C86">
-        <v>5.407012676435478</v>
+        <v>5.389690746458334</v>
       </c>
       <c r="D86">
-        <v>5.373923872478174</v>
+        <v>5.338351602226791</v>
       </c>
       <c r="E86">
-        <v>5.31082828998596</v>
+        <v>5.361661748109676</v>
       </c>
       <c r="F86">
-        <v>5.42984572518008</v>
+        <v>5.391277932793244</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.381833756064873</v>
+        <v>5.431619431194702</v>
       </c>
       <c r="C87">
-        <v>5.407710011884402</v>
+        <v>5.389925650247953</v>
       </c>
       <c r="D87">
-        <v>5.374245335934981</v>
+        <v>5.338434616375072</v>
       </c>
       <c r="E87">
-        <v>5.3127090387956</v>
+        <v>5.362346461431004</v>
       </c>
       <c r="F87">
-        <v>5.431292900557132</v>
+        <v>5.392824355738729</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.384392131256783</v>
+        <v>5.431711704542598</v>
       </c>
       <c r="C88">
-        <v>5.407772090549296</v>
+        <v>5.38958041288699</v>
       </c>
       <c r="D88">
-        <v>5.374056749584482</v>
+        <v>5.338022181454553</v>
       </c>
       <c r="E88">
-        <v>5.314113488730314</v>
+        <v>5.362499610407662</v>
       </c>
       <c r="F88">
-        <v>5.431991439775881</v>
+        <v>5.393744593898125</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.386346654299565</v>
+        <v>5.431141260267741</v>
       </c>
       <c r="C89">
-        <v>5.407218453135909</v>
+        <v>5.38866979093609</v>
       </c>
       <c r="D89">
-        <v>5.373374096135725</v>
+        <v>5.337119397967427</v>
       </c>
       <c r="E89">
-        <v>5.31504865994476</v>
+        <v>5.362132309569254</v>
       </c>
       <c r="F89">
-        <v>5.431970354819812</v>
+        <v>5.394054326469321</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.387711632248709</v>
+        <v>5.42993276349848</v>
       </c>
       <c r="C90">
-        <v>5.406068891520775</v>
+        <v>5.387209042922175</v>
       </c>
       <c r="D90">
-        <v>5.37221305293261</v>
+        <v>5.335732404264897</v>
       </c>
       <c r="E90">
-        <v>5.31552240950637</v>
+        <v>5.361256083911242</v>
       </c>
       <c r="F90">
-        <v>5.431258223413057</v>
+        <v>5.393769717141423</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.388501763951323</v>
+        <v>5.428110569645062</v>
       </c>
       <c r="C91">
-        <v>5.404343289450296</v>
+        <v>5.385213799122834</v>
       </c>
       <c r="D91">
-        <v>5.370588970738885</v>
+        <v>5.333868326892382</v>
       </c>
       <c r="E91">
-        <v>5.31554326147314</v>
+        <v>5.359882786276833</v>
       </c>
       <c r="F91">
-        <v>5.429883123281838</v>
+        <v>5.392907280988084</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.388732013177262</v>
+        <v>5.425698622315149</v>
       </c>
       <c r="C92">
-        <v>5.402061496091999</v>
+        <v>5.382699944716292</v>
       </c>
       <c r="D92">
-        <v>5.368516848629195</v>
+        <v>5.331535225006875</v>
       </c>
       <c r="E92">
-        <v>5.315120275434682</v>
+        <v>5.358024523048239</v>
       </c>
       <c r="F92">
-        <v>5.427872498828605</v>
+        <v>5.391483767632647</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.388417496603769</v>
+        <v>5.422720373115011</v>
       </c>
       <c r="C93">
-        <v>5.399243226426727</v>
+        <v>5.379683514887374</v>
       </c>
       <c r="D93">
-        <v>5.366011318358646</v>
+        <v>5.328742031793769</v>
       </c>
       <c r="E93">
-        <v>5.314262931576849</v>
+        <v>5.355693586638955</v>
       </c>
       <c r="F93">
-        <v>5.425253091448208</v>
+        <v>5.389516058964579</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.387573419624874</v>
+        <v>5.419198719493465</v>
       </c>
       <c r="C94">
-        <v>5.395907957778511</v>
+        <v>5.376180603966639</v>
       </c>
       <c r="D94">
-        <v>5.363086636804109</v>
+        <v>5.325498491435631</v>
       </c>
       <c r="E94">
-        <v>5.312981029608834</v>
+        <v>5.352902394516989</v>
       </c>
       <c r="F94">
-        <v>5.422050907374993</v>
+        <v>5.38702107932511</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.386214976732536</v>
+        <v>5.415155957988903</v>
       </c>
       <c r="C95">
-        <v>5.392074879811381</v>
+        <v>5.372207286807048</v>
       </c>
       <c r="D95">
-        <v>5.359756687981745</v>
+        <v>5.321815091473235</v>
       </c>
       <c r="E95">
-        <v>5.311284600636171</v>
+        <v>5.349663435340996</v>
       </c>
       <c r="F95">
-        <v>5.418291173927782</v>
+        <v>5.384015718074111</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.384357316291133</v>
+        <v>5.410613750159406</v>
       </c>
       <c r="C96">
-        <v>5.387762836638816</v>
+        <v>5.367779549466548</v>
       </c>
       <c r="D96">
-        <v>5.356034983065325</v>
+        <v>5.317702990665731</v>
       </c>
       <c r="E96">
-        <v>5.309183834207598</v>
+        <v>5.345989221388713</v>
       </c>
       <c r="F96">
-        <v>5.413998313647084</v>
+        <v>5.380516762612523</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.382015479981691</v>
+        <v>5.405593099862195</v>
       </c>
       <c r="C97">
-        <v>5.382990269258547</v>
+        <v>5.362913232336402</v>
       </c>
       <c r="D97">
-        <v>5.351934629444675</v>
+        <v>5.313173940836169</v>
       </c>
       <c r="E97">
-        <v>5.30668901270487</v>
+        <v>5.34189224531899</v>
       </c>
       <c r="F97">
-        <v>5.409195933413738</v>
+        <v>5.376540841226205</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.379204336136215</v>
+        <v>5.400114338647052</v>
       </c>
       <c r="C98">
-        <v>5.377775181133577</v>
+        <v>5.357623979364096</v>
       </c>
       <c r="D98">
-        <v>5.347468353326239</v>
+        <v>5.308240202129484</v>
       </c>
       <c r="E98">
-        <v>5.303810461988075</v>
+        <v>5.337384942268303</v>
       </c>
       <c r="F98">
-        <v>5.403906823641287</v>
+        <v>5.372104374910689</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.375938550999924</v>
+        <v>5.394197118403524</v>
       </c>
       <c r="C99">
-        <v>5.372135116087486</v>
+        <v>5.351927195109793</v>
       </c>
       <c r="D99">
-        <v>5.342648511397448</v>
+        <v>5.302914451064715</v>
       </c>
       <c r="E99">
-        <v>5.300558503790681</v>
+        <v>5.332479656480023</v>
       </c>
       <c r="F99">
-        <v>5.398152949481403</v>
+        <v>5.367223537866884</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.372232559227646</v>
+        <v>5.387860409912057</v>
       </c>
       <c r="C100">
-        <v>5.366087140934126</v>
+        <v>5.34583800933675</v>
       </c>
       <c r="D100">
-        <v>5.337487092788741</v>
+        <v>5.297209682472992</v>
       </c>
       <c r="E100">
-        <v>5.296943419161864</v>
+        <v>5.327188612343234</v>
       </c>
       <c r="F100">
-        <v>5.391955458713752</v>
+        <v>5.361914219220693</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.368100545879364</v>
+        <v>5.381122506174453</v>
       </c>
       <c r="C101">
-        <v>5.35964783174439</v>
+        <v>5.339371247851279</v>
       </c>
       <c r="D101">
-        <v>5.331995722125428</v>
+        <v>5.291139106239907</v>
       </c>
       <c r="E101">
-        <v>5.292975411228997</v>
+        <v>5.32152388838201</v>
       </c>
       <c r="F101">
-        <v>5.385334696715781</v>
+        <v>5.356191989055712</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.363556419526854</v>
+        <v>5.374001029594955</v>
       </c>
       <c r="C102">
-        <v>5.352833264416955</v>
+        <v>5.332541408775014</v>
       </c>
       <c r="D102">
-        <v>5.326185669811472</v>
+        <v>5.284716043323211</v>
       </c>
       <c r="E102">
-        <v>5.288664576462864</v>
+        <v>5.315497396259755</v>
       </c>
       <c r="F102">
-        <v>5.378310214991135</v>
+        <v>5.350072088967447</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5.358613798458186</v>
+        <v>5.366512942825921</v>
       </c>
       <c r="C103">
-        <v>5.345659009666901</v>
+        <v>5.325362643759413</v>
       </c>
       <c r="D103">
-        <v>5.320067851829198</v>
+        <v>5.277953823741061</v>
       </c>
       <c r="E103">
-        <v>5.284020883825091</v>
+        <v>5.309120861790225</v>
       </c>
       <c r="F103">
-        <v>5.3709007944931</v>
+        <v>5.343569404925295</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.35328599746549</v>
+        <v>5.358674559714175</v>
       </c>
       <c r="C104">
-        <v>5.338140131908717</v>
+        <v>5.317848742525633</v>
       </c>
       <c r="D104">
-        <v>5.313652849607075</v>
+        <v>5.270865692087914</v>
       </c>
       <c r="E104">
-        <v>5.279054157526777</v>
+        <v>5.302405808908713</v>
       </c>
       <c r="F104">
-        <v>5.363124469555721</v>
+        <v>5.336698454237525</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.347586017039923</v>
+        <v>5.350501558515502</v>
       </c>
       <c r="C105">
-        <v>5.330291191293596</v>
+        <v>5.31001312263927</v>
       </c>
       <c r="D105">
-        <v>5.306950897939123</v>
+        <v>5.263464723553663</v>
       </c>
       <c r="E105">
-        <v>5.273774061801221</v>
+        <v>5.295363546262552</v>
       </c>
       <c r="F105">
-        <v>5.354998533588494</v>
+        <v>5.329473382203893</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5.341526538357172</v>
+        <v>5.342009001452736</v>
       </c>
       <c r="C106">
-        <v>5.322126246734451</v>
+        <v>5.301868821391306</v>
       </c>
       <c r="D106">
-        <v>5.299971916607155</v>
+        <v>5.255763753012985</v>
       </c>
       <c r="E106">
-        <v>5.26819008795476</v>
+        <v>5.28800515613061</v>
       </c>
       <c r="F106">
-        <v>5.34653957420473</v>
+        <v>5.321907942056974</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.335119915313231</v>
+        <v>5.333211349938693</v>
       </c>
       <c r="C107">
-        <v>5.313658865022002</v>
+        <v>5.29342849089648</v>
       </c>
       <c r="D107">
-        <v>5.292725504336127</v>
+        <v>5.247775320628734</v>
       </c>
       <c r="E107">
-        <v>5.262311543850371</v>
+        <v>5.280341487754432</v>
       </c>
       <c r="F107">
-        <v>5.337763480924743</v>
+        <v>5.314015493003262</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5.328378173181607</v>
+        <v>5.324122482521885</v>
       </c>
       <c r="C108">
-        <v>5.304902128681591</v>
+        <v>5.284704395620375</v>
       </c>
       <c r="D108">
-        <v>5.285220955686687</v>
+        <v>5.239511628742389</v>
       </c>
       <c r="E108">
-        <v>5.256147545131603</v>
+        <v>5.272383143949108</v>
       </c>
       <c r="F108">
-        <v>5.328685482106675</v>
+        <v>5.305809001990287</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5.321313008186086</v>
+        <v>5.314755713755203</v>
       </c>
       <c r="C109">
-        <v>5.295868642830762</v>
+        <v>5.275708412000859</v>
       </c>
       <c r="D109">
-        <v>5.277467268792694</v>
+        <v>5.23098451338877</v>
       </c>
       <c r="E109">
-        <v>5.249707012880227</v>
+        <v>5.264140483921537</v>
       </c>
       <c r="F109">
-        <v>5.319320143025036</v>
+        <v>5.297301040252869</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5.313935787862273</v>
+        <v>5.305123808933971</v>
       </c>
       <c r="C110">
-        <v>5.286570547789652</v>
+        <v>5.266452029895528</v>
       </c>
       <c r="D110">
-        <v>5.269473153175676</v>
+        <v>5.222205427166349</v>
       </c>
       <c r="E110">
-        <v>5.242998666414756</v>
+        <v>5.255623603988449</v>
       </c>
       <c r="F110">
-        <v>5.309681425228812</v>
+        <v>5.288503783450015</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.30625755146044</v>
+        <v>5.295239006157902</v>
       </c>
       <c r="C111">
-        <v>5.277019527235618</v>
+        <v>5.256946355541565</v>
       </c>
       <c r="D111">
-        <v>5.261247033614958</v>
+        <v>5.213185427249106</v>
       </c>
       <c r="E111">
-        <v>5.236031020506099</v>
+        <v>5.246842357602291</v>
       </c>
       <c r="F111">
-        <v>5.299782673066535</v>
+        <v>5.279429017317585</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.298289013747802</v>
+        <v>5.285113032962801</v>
       </c>
       <c r="C112">
-        <v>5.267226824211281</v>
+        <v>5.247202115770428</v>
       </c>
       <c r="D112">
-        <v>5.252797064269939</v>
+        <v>5.203935174284831</v>
       </c>
       <c r="E112">
-        <v>5.228812383786527</v>
+        <v>5.237806330916508</v>
       </c>
       <c r="F112">
-        <v>5.289636666113937</v>
+        <v>5.270088140075159</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.290040571419038</v>
+        <v>5.274757125801038</v>
       </c>
       <c r="C113">
-        <v>5.257203237219767</v>
+        <v>5.23722966361026</v>
       </c>
       <c r="D113">
-        <v>5.244131132533761</v>
+        <v>5.194464934029607</v>
       </c>
       <c r="E113">
-        <v>5.22135085862364</v>
+        <v>5.228524862063797</v>
       </c>
       <c r="F113">
-        <v>5.279255624269563</v>
+        <v>5.260492166879746</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.281522303362101</v>
+        <v>5.264182047630692</v>
       </c>
       <c r="C114">
-        <v>5.246959159336439</v>
+        <v>5.227038984501957</v>
       </c>
       <c r="D114">
-        <v>5.235256868309283</v>
+        <v>5.18478458301895</v>
       </c>
       <c r="E114">
-        <v>5.213654339707151</v>
+        <v>5.219007028995224</v>
       </c>
       <c r="F114">
-        <v>5.268651232132759</v>
+        <v>5.250651735920055</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.27274397740188</v>
+        <v>5.253398105689095</v>
       </c>
       <c r="C115">
-        <v>5.236504565280757</v>
+        <v>5.216639703382062</v>
       </c>
       <c r="D115">
-        <v>5.226181651764387</v>
+        <v>5.174903616800989</v>
       </c>
       <c r="E115">
-        <v>5.205730516454511</v>
+        <v>5.209261656647399</v>
       </c>
       <c r="F115">
-        <v>5.257834666137972</v>
+        <v>5.240577115698449</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.263715057522795</v>
+        <v>5.24241516912402</v>
       </c>
       <c r="C116">
-        <v>5.225849047013295</v>
+        <v>5.206041092385072</v>
       </c>
       <c r="D116">
-        <v>5.216912623580875</v>
+        <v>5.164831159640642</v>
       </c>
       <c r="E116">
-        <v>5.197586872697266</v>
+        <v>5.199297313596024</v>
       </c>
       <c r="F116">
-        <v>5.246816602229398</v>
+        <v>5.230278211865821</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.254444702600046</v>
+        <v>5.231242685723664</v>
       </c>
       <c r="C117">
-        <v>5.215001811952505</v>
+        <v>5.195252079041635</v>
       </c>
       <c r="D117">
-        <v>5.207456689579167</v>
+        <v>5.154575975389915</v>
       </c>
       <c r="E117">
-        <v>5.189230689812082</v>
+        <v>5.189122314512033</v>
       </c>
       <c r="F117">
-        <v>5.235607248941086</v>
+        <v>5.219764574556467</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5.244941786167321</v>
+        <v>5.21988969855937</v>
       </c>
       <c r="C118">
-        <v>5.203971702623891</v>
+        <v>5.184281254871132</v>
       </c>
       <c r="D118">
-        <v>5.197820528463045</v>
+        <v>5.144146478963759</v>
       </c>
       <c r="E118">
-        <v>5.180669049884974</v>
+        <v>5.178744730521048</v>
       </c>
       <c r="F118">
-        <v>5.224216355678077</v>
+        <v>5.209045407959802</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.23521487874015</v>
+        <v>5.208364862032472</v>
       </c>
       <c r="C119">
-        <v>5.192767201207015</v>
+        <v>5.17313688423465</v>
       </c>
       <c r="D119">
-        <v>5.188010604665687</v>
+        <v>5.133550748138808</v>
       </c>
       <c r="E119">
-        <v>5.171908839344809</v>
+        <v>5.168172382735174</v>
       </c>
       <c r="F119">
-        <v>5.21265324018596</v>
+        <v>5.198129578183538</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.225272287148748</v>
+        <v>5.196676457794526</v>
       </c>
       <c r="C120">
-        <v>5.181396447887697</v>
+        <v>5.161826913442024</v>
       </c>
       <c r="D120">
-        <v>5.178033164211146</v>
+        <v>5.122796535363682</v>
       </c>
       <c r="E120">
-        <v>5.162956748118716</v>
+        <v>5.157412854505849</v>
       </c>
       <c r="F120">
-        <v>5.200926801035094</v>
+        <v>5.18702562194238</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5.215122029208489</v>
+        <v>5.184832409578144</v>
       </c>
       <c r="C121">
-        <v>5.169867249613451</v>
+        <v>5.150358979982313</v>
       </c>
       <c r="D121">
-        <v>5.167894250123168</v>
+        <v>5.111891279647284</v>
       </c>
       <c r="E121">
-        <v>5.15381927546737</v>
+        <v>5.146473490034869</v>
       </c>
       <c r="F121">
-        <v>5.189045540699811</v>
+        <v>5.175741756139</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5.204771869219018</v>
+        <v>5.172840297966209</v>
       </c>
       <c r="C122">
-        <v>5.158187094472581</v>
+        <v>5.13874042180969</v>
       </c>
       <c r="D122">
-        <v>5.157599715908428</v>
+        <v>5.100842118215904</v>
       </c>
       <c r="E122">
-        <v>5.144502733367017</v>
+        <v>5.135361402672943</v>
       </c>
       <c r="F122">
-        <v>5.177017576190512</v>
+        <v>5.164285887142698</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.194229306445515</v>
+        <v>5.160707373503637</v>
       </c>
       <c r="C123">
-        <v>5.146363162750064</v>
+        <v>5.126978286669898</v>
       </c>
       <c r="D123">
-        <v>5.147155205591352</v>
+        <v>5.089655897850704</v>
       </c>
       <c r="E123">
-        <v>5.135013250559876</v>
+        <v>5.124083477130738</v>
       </c>
       <c r="F123">
-        <v>5.164850663501372</v>
+        <v>5.15266561849148</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5.183501591437261</v>
+        <v>5.14844057381933</v>
       </c>
       <c r="C124">
-        <v>5.13440233707764</v>
+        <v>5.115079341405019</v>
       </c>
       <c r="D124">
-        <v>5.136566190804308</v>
+        <v>5.078339185941807</v>
       </c>
       <c r="E124">
-        <v>5.125356776085312</v>
+        <v>5.112646375111503</v>
       </c>
       <c r="F124">
-        <v>5.152552204663243</v>
+        <v>5.140888261248</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5.172595730027234</v>
+        <v>5.13604653044626</v>
       </c>
       <c r="C125">
-        <v>5.122311218863731</v>
+        <v>5.103050081197682</v>
       </c>
       <c r="D125">
-        <v>5.12583796531085</v>
+        <v>5.066898281355283</v>
       </c>
       <c r="E125">
-        <v>5.115539084249657</v>
+        <v>5.101056540761719</v>
       </c>
       <c r="F125">
-        <v>5.140129271902007</v>
+        <v>5.128960841180876</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5.161518485746108</v>
+        <v>5.123531591410344</v>
       </c>
       <c r="C126">
-        <v>5.110096135285696</v>
+        <v>5.090896738717976</v>
       </c>
       <c r="D126">
-        <v>5.114975631671923</v>
+        <v>5.05533922492651</v>
       </c>
       <c r="E126">
-        <v>5.105565776715519</v>
+        <v>5.089320204406111</v>
       </c>
       <c r="F126">
-        <v>5.127588612964336</v>
+        <v>5.116890111863851</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5.150276392755313</v>
+        <v>5.110901822308006</v>
       </c>
       <c r="C127">
-        <v>5.097763136592263</v>
+        <v>5.078625293163821</v>
       </c>
       <c r="D127">
-        <v>5.103984141061412</v>
+        <v>5.043667809564896</v>
       </c>
       <c r="E127">
-        <v>5.095442287183544</v>
+        <v>5.077443389372627</v>
       </c>
       <c r="F127">
-        <v>5.114936673977056</v>
+        <v>5.104682560952718</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5.138875759382377</v>
+        <v>5.098163027458149</v>
       </c>
       <c r="C128">
-        <v>5.085318040046617</v>
+        <v>5.06624147905899</v>
       </c>
       <c r="D128">
-        <v>5.092868276779984</v>
+        <v>5.031889590046572</v>
       </c>
       <c r="E128">
-        <v>5.085173885111486</v>
+        <v>5.065431915744751</v>
       </c>
       <c r="F128">
-        <v>5.102179604360805</v>
+        <v>5.092344419290227</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5.127322675604276</v>
+        <v>5.085320754939776</v>
       </c>
       <c r="C129">
-        <v>5.072766414406688</v>
+        <v>5.0537507952151</v>
       </c>
       <c r="D129">
-        <v>5.081632656700907</v>
+        <v>5.020009892470743</v>
       </c>
       <c r="E129">
-        <v>5.074765678461621</v>
+        <v>5.053291406928091</v>
       </c>
       <c r="F129">
-        <v>5.089323277424596</v>
+        <v>5.079881670945571</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5.115623021662672</v>
+        <v>5.072380309225716</v>
       </c>
       <c r="C130">
-        <v>5.06011357454847</v>
+        <v>5.041158512723289</v>
       </c>
       <c r="D130">
-        <v>5.0702817561267</v>
+        <v>5.008033824644298</v>
       </c>
       <c r="E130">
-        <v>5.064222621889169</v>
+        <v>5.041027294042768</v>
       </c>
       <c r="F130">
-        <v>5.076373295826925</v>
+        <v>5.067300061131156</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5.103782471949386</v>
+        <v>5.059346763119012</v>
       </c>
       <c r="C131">
-        <v>5.047364640920393</v>
+        <v>5.028469684532576</v>
       </c>
       <c r="D131">
-        <v>5.058819898560638</v>
+        <v>4.99596628344902</v>
       </c>
       <c r="E131">
-        <v>5.053549519916427</v>
+        <v>5.028644821876081</v>
       </c>
       <c r="F131">
-        <v>5.063335009572118</v>
+        <v>5.054605103345941</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5.091806503173695</v>
+        <v>5.04622496389449</v>
       </c>
       <c r="C132">
-        <v>5.034524509256489</v>
+        <v>5.015689151731095</v>
       </c>
       <c r="D132">
-        <v>5.047251261729534</v>
+        <v>4.983811959750657</v>
       </c>
       <c r="E132">
-        <v>5.042751025211669</v>
+        <v>5.016149053791071</v>
       </c>
       <c r="F132">
-        <v>5.050213522231819</v>
+        <v>5.04180209066591</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5.079700402796669</v>
+        <v>5.03301954825324</v>
       </c>
       <c r="C133">
-        <v>5.021597845826565</v>
+        <v>5.002821553622216</v>
       </c>
       <c r="D133">
-        <v>5.035579892004716</v>
+        <v>4.971575352295257</v>
       </c>
       <c r="E133">
-        <v>5.031831650232657</v>
+        <v>5.003544877228276</v>
       </c>
       <c r="F133">
-        <v>5.037013706369737</v>
+        <v>5.028896096955646</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5.067469272138259</v>
+        <v>5.019734946500231</v>
       </c>
       <c r="C134">
-        <v>5.008589149694818</v>
+        <v>4.989871333255208</v>
       </c>
       <c r="D134">
-        <v>5.023809698244911</v>
+        <v>4.959260774758172</v>
       </c>
       <c r="E134">
-        <v>5.020795768080352</v>
+        <v>4.990837008628243</v>
       </c>
       <c r="F134">
-        <v>5.02374021024638</v>
+        <v>5.015891993079656</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5.055118022186987</v>
+        <v>5.006375396432743</v>
       </c>
       <c r="C135">
-        <v>4.995502718927593</v>
+        <v>4.976842746728899</v>
       </c>
       <c r="D135">
-        <v>5.011944461066841</v>
+        <v>4.946872362199615</v>
       </c>
       <c r="E135">
-        <v>5.009647615515668</v>
+        <v>4.978029998876099</v>
       </c>
       <c r="F135">
-        <v>5.0103974710427</v>
+        <v>5.002794449501859</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5.042651406304331</v>
+        <v>4.992944945770079</v>
       </c>
       <c r="C136">
-        <v>4.982342650907737</v>
+        <v>4.963739869361746</v>
       </c>
       <c r="D136">
-        <v>4.99998784115949</v>
+        <v>4.934414077573023</v>
       </c>
       <c r="E136">
-        <v>4.998391296435141</v>
+        <v>4.965128237722188</v>
       </c>
       <c r="F136">
-        <v>4.996989721717324</v>
+        <v>4.98960794672176</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5.0300740087544</v>
+        <v>4.979447467674786</v>
       </c>
       <c r="C137">
-        <v>4.96911289226644</v>
+        <v>4.950566603277593</v>
       </c>
       <c r="D137">
-        <v>4.987943370412298</v>
+        <v>4.921889719327122</v>
       </c>
       <c r="E137">
-        <v>4.987030788089269</v>
+        <v>4.952135960158672</v>
       </c>
       <c r="F137">
-        <v>4.983521002353267</v>
+        <v>4.976336778867263</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5.017390233108628</v>
+        <v>4.965886659999486</v>
       </c>
       <c r="C138">
-        <v>4.955817213115215</v>
+        <v>4.937326684733575</v>
       </c>
       <c r="D138">
-        <v>4.975814469707094</v>
+        <v>4.909302928128961</v>
       </c>
       <c r="E138">
-        <v>4.975569944444543</v>
+        <v>4.939057249513189</v>
       </c>
       <c r="F138">
-        <v>4.969995167152961</v>
+        <v>4.962985064449401</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5.004604344985641</v>
+        <v>4.95226606183448</v>
       </c>
       <c r="C139">
-        <v>4.94245920973135</v>
+        <v>4.924023689197769</v>
       </c>
       <c r="D139">
-        <v>4.963604449349646</v>
+        <v>4.89665719447187</v>
       </c>
       <c r="E139">
-        <v>4.964012493820326</v>
+        <v>4.925896042084733</v>
       </c>
       <c r="F139">
-        <v>4.956415894020491</v>
+        <v>4.949556751239911</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>4.991720459233363</v>
+        <v>4.938589051115698</v>
       </c>
       <c r="C140">
-        <v>4.929042342547607</v>
+        <v>4.910661039810459</v>
       </c>
       <c r="D140">
-        <v>4.951316501824758</v>
+        <v>4.883955868850538</v>
       </c>
       <c r="E140">
-        <v>4.952362051395119</v>
+        <v>4.912656135789013</v>
       </c>
       <c r="F140">
-        <v>4.942786691871298</v>
+        <v>4.93605562261849</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4.978742533575052</v>
+        <v>4.924858860883047</v>
       </c>
       <c r="C141">
-        <v>4.915569917611834</v>
+        <v>4.897242011347966</v>
       </c>
       <c r="D141">
-        <v>4.938953722953526</v>
+        <v>4.871202149421907</v>
       </c>
       <c r="E141">
-        <v>4.940622118166822</v>
+        <v>4.899341189119151</v>
       </c>
       <c r="F141">
-        <v>4.929110908446043</v>
+        <v>4.922485306131676</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4.965674381519452</v>
+        <v>4.911078576809182</v>
       </c>
       <c r="C142">
-        <v>4.902045088433455</v>
+        <v>4.883769738115654</v>
       </c>
       <c r="D142">
-        <v>4.926519104553775</v>
+        <v>4.85839912008423</v>
       </c>
       <c r="E142">
-        <v>4.928796080398654</v>
+        <v>4.885954730037348</v>
       </c>
       <c r="F142">
-        <v>4.915391738057395</v>
+        <v>4.908849275615049</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4.952519695684091</v>
+        <v>4.897251152009959</v>
       </c>
       <c r="C143">
-        <v>4.888470889741964</v>
+        <v>4.87024721834389</v>
       </c>
       <c r="D143">
-        <v>4.914015534986246</v>
+        <v>4.845549705452854</v>
       </c>
       <c r="E143">
-        <v>4.916887221390373</v>
+        <v>4.872500160912439</v>
       </c>
       <c r="F143">
-        <v>4.901632224749219</v>
+        <v>4.89515086266566</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>4.939282030381734</v>
+        <v>4.883379404925019</v>
       </c>
       <c r="C144">
-        <v>4.874850220127545</v>
+        <v>4.856677320496694</v>
       </c>
       <c r="D144">
-        <v>4.901445813866945</v>
+        <v>4.832656743164553</v>
       </c>
       <c r="E144">
-        <v>4.904898719428464</v>
+        <v>4.858980754706761</v>
       </c>
       <c r="F144">
-        <v>4.887835275477235</v>
+        <v>4.881393256182512</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>4.925964797027739</v>
+        <v>4.869466032779591</v>
       </c>
       <c r="C145">
-        <v>4.86118584268355</v>
+        <v>4.843062788656727</v>
       </c>
       <c r="D145">
-        <v>4.888812646275845</v>
+        <v>4.819722909014515</v>
       </c>
       <c r="E145">
-        <v>4.892833649538941</v>
+        <v>4.845399671487884</v>
       </c>
       <c r="F145">
-        <v>4.87400366853646</v>
+        <v>4.867579514590765</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>4.912571305040286</v>
+        <v>4.855513610128567</v>
       </c>
       <c r="C146">
-        <v>4.847480418621723</v>
+        <v>4.82940624687034</v>
       </c>
       <c r="D146">
-        <v>4.87611864574585</v>
+        <v>4.806750803951524</v>
       </c>
       <c r="E146">
-        <v>4.880694992368168</v>
+        <v>4.831759954584078</v>
       </c>
       <c r="F146">
-        <v>4.860140040867988</v>
+        <v>4.853712564201189</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>4.899104740759743</v>
+        <v>4.841524599861724</v>
       </c>
       <c r="C147">
-        <v>4.833736488339405</v>
+        <v>4.815710205627115</v>
       </c>
       <c r="D147">
-        <v>4.863366344801442</v>
+        <v>4.793742912313632</v>
       </c>
       <c r="E147">
-        <v>4.868485632698756</v>
+        <v>4.818064532088605</v>
       </c>
       <c r="F147">
-        <v>4.846246921311634</v>
+        <v>4.839795211388425</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>4.885568162209119</v>
+        <v>4.827501353883156</v>
       </c>
       <c r="C148">
-        <v>4.819956472168354</v>
+        <v>4.80197706478613</v>
       </c>
       <c r="D148">
-        <v>4.850558189419602</v>
+        <v>4.780701610951232</v>
       </c>
       <c r="E148">
-        <v>4.856208360366564</v>
+        <v>4.804316230357205</v>
       </c>
       <c r="F148">
-        <v>4.832326729852472</v>
+        <v>4.825830141601879</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>4.871964530079477</v>
+        <v>4.813446120751147</v>
       </c>
       <c r="C149">
-        <v>4.806142702395919</v>
+        <v>4.788209119939558</v>
       </c>
       <c r="D149">
-        <v>4.837696544776885</v>
+        <v>4.767629186515532</v>
       </c>
       <c r="E149">
-        <v>4.843865880761569</v>
+        <v>4.790517769068933</v>
       </c>
       <c r="F149">
-        <v>4.818381747991835</v>
+        <v>4.811819928299064</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>4.858296698801146</v>
+        <v>4.79936104882036</v>
       </c>
       <c r="C150">
-        <v>4.792297404415473</v>
+        <v>4.774408565380993</v>
       </c>
       <c r="D150">
-        <v>4.824783702184149</v>
+        <v>4.754527827532294</v>
       </c>
       <c r="E150">
-        <v>4.831460811055543</v>
+        <v>4.77667176634572</v>
       </c>
       <c r="F150">
-        <v>4.804414174002489</v>
+        <v>4.797767035640669</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>4.844567413561898</v>
+        <v>4.785248190884927</v>
       </c>
       <c r="C151">
-        <v>4.778422698375837</v>
+        <v>4.760577499380323</v>
       </c>
       <c r="D151">
-        <v>4.811821873139881</v>
+        <v>4.741399601679118</v>
       </c>
       <c r="E151">
-        <v>4.818995682883778</v>
+        <v>4.762780747890903</v>
       </c>
       <c r="F151">
-        <v>4.790426110183672</v>
+        <v>4.783673822875016</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>4.830779318695229</v>
+        <v>4.771109509120643</v>
       </c>
       <c r="C152">
-        <v>4.764520626952724</v>
+        <v>4.746717927828453</v>
       </c>
       <c r="D152">
-        <v>4.79881319892497</v>
+        <v>4.728246548710241</v>
       </c>
       <c r="E152">
-        <v>4.806472950901218</v>
+        <v>4.74884714309752</v>
       </c>
       <c r="F152">
-        <v>4.776419536790164</v>
+        <v>4.769542550467433</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>4.816934972805466</v>
+        <v>4.756946877599226</v>
       </c>
       <c r="C153">
-        <v>4.750593138667996</v>
+        <v>4.732831767919691</v>
       </c>
       <c r="D153">
-        <v>4.785759752452087</v>
+        <v>4.715070564617227</v>
       </c>
       <c r="E153">
-        <v>4.793894988880069</v>
+        <v>4.734873293483942</v>
       </c>
       <c r="F153">
-        <v>4.762396361317184</v>
+        <v>4.755375381116517</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>4.803036838647171</v>
+        <v>4.742762087003356</v>
       </c>
       <c r="C154">
-        <v>4.736642089738348</v>
+        <v>4.718920852872357</v>
       </c>
       <c r="D154">
-        <v>4.772663533319098</v>
+        <v>4.701873538559421</v>
       </c>
       <c r="E154">
-        <v>4.781264093741162</v>
+        <v>4.720861455798801</v>
       </c>
       <c r="F154">
-        <v>4.74835840524567</v>
+        <v>4.741174387845403</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>4.789087278862449</v>
+        <v>4.7285568461843</v>
       </c>
       <c r="C155">
-        <v>4.722669268213147</v>
+        <v>4.704986934191027</v>
       </c>
       <c r="D155">
-        <v>4.759526480798317</v>
+        <v>4.688657215495852</v>
       </c>
       <c r="E155">
-        <v>4.768582492280836</v>
+        <v>4.706813798002794</v>
       </c>
       <c r="F155">
-        <v>4.734307390592519</v>
+        <v>4.726941553020334</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>4.775088586233006</v>
+        <v>4.714332793176799</v>
       </c>
       <c r="C156">
-        <v>4.70867638037294</v>
+        <v>4.691031686562559</v>
       </c>
       <c r="D156">
-        <v>4.746350469655011</v>
+        <v>4.675423296416214</v>
       </c>
       <c r="E156">
-        <v>4.755852336912031</v>
+        <v>4.692732413651196</v>
       </c>
       <c r="F156">
-        <v>4.7202449716198</v>
+        <v>4.712678777314502</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>4.76104296822684</v>
+        <v>4.700091492421834</v>
       </c>
       <c r="C157">
-        <v>4.694665054457428</v>
+        <v>4.677056709872123</v>
       </c>
       <c r="D157">
-        <v>4.733137309942882</v>
+        <v>4.662173387473815</v>
       </c>
       <c r="E157">
-        <v>4.743075711476698</v>
+        <v>4.678619317383565</v>
       </c>
       <c r="F157">
-        <v>4.706172727235288</v>
+        <v>4.698387877688953</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>4.746952540052579</v>
+        <v>4.685834427980025</v>
       </c>
       <c r="C158">
-        <v>4.680636856826782</v>
+        <v>4.663063533535328</v>
       </c>
       <c r="D158">
-        <v>4.719888756814408</v>
+        <v>4.64890904472654</v>
       </c>
       <c r="E158">
-        <v>4.730254635560247</v>
+        <v>4.66447644605153</v>
       </c>
       <c r="F158">
-        <v>4.692092153019958</v>
+        <v>4.684070596241945</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>4.732819352101036</v>
+        <v>4.671563035460212</v>
       </c>
       <c r="C159">
-        <v>4.666593281914861</v>
+        <v>4.649053618944149</v>
       </c>
       <c r="D159">
-        <v>4.70660650662462</v>
+        <v>4.635631742828276</v>
       </c>
       <c r="E159">
-        <v>4.717391060407277</v>
+        <v>4.650305669612281</v>
       </c>
       <c r="F159">
-        <v>4.678004684845393</v>
+        <v>4.669728596619528</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>4.718645381310504</v>
+        <v>4.657278686702528</v>
       </c>
       <c r="C160">
-        <v>4.65253575257209</v>
+        <v>4.635028362392883</v>
       </c>
       <c r="D160">
-        <v>4.693292198288416</v>
+        <v>4.622342910367792</v>
       </c>
       <c r="E160">
-        <v>4.704486876495825</v>
+        <v>4.636108786167279</v>
       </c>
       <c r="F160">
-        <v>4.663911693395176</v>
+        <v>4.655363474438142</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>4.704432527248667</v>
+        <v>4.642982664996981</v>
       </c>
       <c r="C161">
-        <v>4.63846564120763</v>
+        <v>4.620989098359898</v>
       </c>
       <c r="D161">
-        <v>4.679947420749991</v>
+        <v>4.609043908210018</v>
       </c>
       <c r="E161">
-        <v>4.69154391504902</v>
+        <v>4.621887526262375</v>
       </c>
       <c r="F161">
-        <v>4.649814477994477</v>
+        <v>4.640976759621707</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>4.690182618700113</v>
+        <v>4.628676226128133</v>
       </c>
       <c r="C162">
-        <v>4.624384256037924</v>
+        <v>4.606937101452063</v>
       </c>
       <c r="D162">
-        <v>4.6665737091372</v>
+        <v>4.595736048532487</v>
       </c>
       <c r="E162">
-        <v>4.678563944875279</v>
+        <v>4.607643559792276</v>
       </c>
       <c r="F162">
-        <v>4.635714287190234</v>
+        <v>4.626569912419826</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>4.675897427213613</v>
+        <v>4.61436056589948</v>
       </c>
       <c r="C163">
-        <v>4.610292843998509</v>
+        <v>4.592873589974585</v>
       </c>
       <c r="D163">
-        <v>4.65317254795101</v>
+        <v>4.582420586803058</v>
       </c>
       <c r="E163">
-        <v>4.66554868112081</v>
+        <v>4.593378491185756</v>
       </c>
       <c r="F163">
-        <v>4.621612313536545</v>
+        <v>4.612144328614208</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>4.661578656961566</v>
+        <v>4.600036813481888</v>
       </c>
       <c r="C164">
-        <v>4.596192606072036</v>
+        <v>4.578799727435132</v>
       </c>
       <c r="D164">
-        <v>4.639745375971943</v>
+        <v>4.569098724286067</v>
       </c>
       <c r="E164">
-        <v>4.652499784080201</v>
+        <v>4.579093867495979</v>
       </c>
       <c r="F164">
-        <v>4.607509681352641</v>
+        <v>4.597701355618325</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>4.647227941059787</v>
+        <v>4.585706051351643</v>
       </c>
       <c r="C165">
-        <v>4.582084687358237</v>
+        <v>4.56471662579314</v>
       </c>
       <c r="D165">
-        <v>4.626293582566992</v>
+        <v>4.555771614367632</v>
       </c>
       <c r="E165">
-        <v>4.639418857534186</v>
+        <v>4.564791179722305</v>
       </c>
       <c r="F165">
-        <v>4.593407476206235</v>
+        <v>4.583242280439606</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>4.632846865922273</v>
+        <v>4.57136932295994</v>
       </c>
       <c r="C166">
-        <v>4.567970179252363</v>
+        <v>4.550625347099964</v>
       </c>
       <c r="D166">
-        <v>4.612818513006877</v>
+        <v>4.54244035789297</v>
       </c>
       <c r="E166">
-        <v>4.626307457482969</v>
+        <v>4.550471859698792</v>
       </c>
       <c r="F166">
-        <v>4.579306733129264</v>
+        <v>4.568768316464445</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>4.618436958180216</v>
+        <v>4.557027618494649</v>
       </c>
       <c r="C167">
-        <v>4.553850132977708</v>
+        <v>4.536526906037172</v>
       </c>
       <c r="D167">
-        <v>4.599321470310011</v>
+        <v>4.529106013427197</v>
       </c>
       <c r="E167">
-        <v>4.613167089426566</v>
+        <v>4.536137290593209</v>
       </c>
       <c r="F167">
-        <v>4.565208429646519</v>
+        <v>4.554280649979128</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>4.603999683039649</v>
+        <v>4.542681877960275</v>
       </c>
       <c r="C168">
-        <v>4.539725550943271</v>
+        <v>4.522422271998762</v>
       </c>
       <c r="D168">
-        <v>4.585803712127515</v>
+        <v>4.515769592383823</v>
       </c>
       <c r="E168">
-        <v>4.599999207979869</v>
+        <v>4.521788803292424</v>
       </c>
       <c r="F168">
-        <v>4.551113508058607</v>
+        <v>4.539780412027295</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>4.589536459237977</v>
+        <v>4.528333009739686</v>
       </c>
       <c r="C169">
-        <v>4.52559738929123</v>
+        <v>4.508312370724709</v>
       </c>
       <c r="D169">
-        <v>4.572266458175244</v>
+        <v>4.502432063837095</v>
       </c>
       <c r="E169">
-        <v>4.586805224645879</v>
+        <v>4.507427677265716</v>
       </c>
       <c r="F169">
-        <v>4.537022866624779</v>
+        <v>4.525268669223749</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>4.575048655404209</v>
+        <v>4.513981878694366</v>
       </c>
       <c r="C170">
-        <v>4.511466568421472</v>
+        <v>4.494198086909373</v>
       </c>
       <c r="D170">
-        <v>4.558710888478323</v>
+        <v>4.489094360166137</v>
       </c>
       <c r="E170">
-        <v>4.573586504813986</v>
+        <v>4.493055148366108</v>
       </c>
       <c r="F170">
-        <v>4.522937354063813</v>
+        <v>4.510746456096356</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>4.560537586290391</v>
+        <v>4.499629304177869</v>
       </c>
       <c r="C171">
-        <v>4.497333966026559</v>
+        <v>4.480080265213243</v>
       </c>
       <c r="D171">
-        <v>4.545138142605828</v>
+        <v>4.47575736950908</v>
       </c>
       <c r="E171">
-        <v>4.560344368033554</v>
+        <v>4.478672404882531</v>
       </c>
       <c r="F171">
-        <v>4.508857788370858</v>
+        <v>4.496214764012772</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>4.546004517308171</v>
+        <v>4.485276077858294</v>
       </c>
       <c r="C172">
-        <v>4.483200419111231</v>
+        <v>4.465959712793806</v>
       </c>
       <c r="D172">
-        <v>4.53154932613853</v>
+        <v>4.462421948393294</v>
       </c>
       <c r="E172">
-        <v>4.547080094858766</v>
+        <v>4.464280590906929</v>
       </c>
       <c r="F172">
-        <v>4.494784948977331</v>
+        <v>4.481674536374562</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>4.531450675831371</v>
+        <v>4.470922954952318</v>
       </c>
       <c r="C173">
-        <v>4.46906673394574</v>
+        <v>4.45183720036707</v>
       </c>
       <c r="D173">
-        <v>4.517945508190913</v>
+        <v>4.449088913296725</v>
       </c>
       <c r="E173">
-        <v>4.533794923663754</v>
+        <v>4.449880810906716</v>
       </c>
       <c r="F173">
-        <v>4.480719573793032</v>
+        <v>4.467126673858906</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>4.516877242470829</v>
+        <v>4.456570649871352</v>
       </c>
       <c r="C174">
-        <v>4.454933679142885</v>
+        <v>4.437713464249539</v>
       </c>
       <c r="D174">
-        <v>4.504327721997813</v>
+        <v>4.435759048354981</v>
       </c>
       <c r="E174">
-        <v>4.520490051847678</v>
+        <v>4.435474125950183</v>
       </c>
       <c r="F174">
-        <v>4.466662373283707</v>
+        <v>4.452572046425351</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>4.502285348872636</v>
+        <v>4.442219851746125</v>
       </c>
       <c r="C175">
-        <v>4.440801987799269</v>
+        <v>4.423589207707012</v>
       </c>
       <c r="D175">
-        <v>4.490696969884331</v>
+        <v>4.422433104951602</v>
       </c>
       <c r="E175">
-        <v>4.507166641232724</v>
+        <v>4.421061560006798</v>
       </c>
       <c r="F175">
-        <v>4.452614024766455</v>
+        <v>4.438011484258107</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>4.487676094818749</v>
+        <v>4.427871220095245</v>
       </c>
       <c r="C176">
-        <v>4.42667236616843</v>
+        <v>4.409465102321212</v>
       </c>
       <c r="D176">
-        <v>4.477054220829807</v>
+        <v>4.409111801395549</v>
       </c>
       <c r="E176">
-        <v>4.493825815149516</v>
+        <v>4.406644100220899</v>
       </c>
       <c r="F176">
-        <v>4.43857516884688</v>
+        <v>4.423445775718498</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>4.473050539089135</v>
+        <v>4.413525380293787</v>
       </c>
       <c r="C177">
-        <v>4.412545487408743</v>
+        <v>4.395341789799352</v>
       </c>
       <c r="D177">
-        <v>4.463400412173121</v>
+        <v>4.395795828973492</v>
       </c>
       <c r="E177">
-        <v>4.480468660532191</v>
+        <v>4.392222694881813</v>
       </c>
       <c r="F177">
-        <v>4.424546423332695</v>
+        <v>4.40887568427597</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>4.458409696347982</v>
+        <v>4.399182929158679</v>
       </c>
       <c r="C178">
-        <v>4.398421993661963</v>
+        <v>4.381219882747615</v>
       </c>
       <c r="D178">
-        <v>4.449736452977468</v>
+        <v>4.382485846412378</v>
       </c>
       <c r="E178">
-        <v>4.467096231684812</v>
+        <v>4.377798260733986</v>
       </c>
       <c r="F178">
-        <v>4.410528377078363</v>
+        <v>4.394301939594039</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>4.443754550456833</v>
+        <v>4.384844442679031</v>
       </c>
       <c r="C179">
-        <v>4.38430250356834</v>
+        <v>4.367099966555956</v>
       </c>
       <c r="D179">
-        <v>4.436063220321364</v>
+        <v>4.369182487967888</v>
       </c>
       <c r="E179">
-        <v>4.453709547839639</v>
+        <v>4.363371680229378</v>
       </c>
       <c r="F179">
-        <v>4.396521586721532</v>
+        <v>4.379725235253765</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>4.429086050677075</v>
+        <v>4.370510468161345</v>
       </c>
       <c r="C180">
-        <v>4.370187606806043</v>
+        <v>4.352982600098903</v>
       </c>
       <c r="D180">
-        <v>4.422381564557406</v>
+        <v>4.355886359804195</v>
       </c>
       <c r="E180">
-        <v>4.44030959601206</v>
+        <v>4.348943802244982</v>
       </c>
       <c r="F180">
-        <v>4.382526589622764</v>
+        <v>4.365146240765099</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>4.414405109777502</v>
+        <v>4.356181523349044</v>
       </c>
       <c r="C181">
-        <v>4.356077866152398</v>
+        <v>4.338868317333819</v>
       </c>
       <c r="D181">
-        <v>4.408692310897981</v>
+        <v>4.342598043743032</v>
       </c>
       <c r="E181">
-        <v>4.426897333285915</v>
+        <v>4.334515447351861</v>
       </c>
       <c r="F181">
-        <v>4.36854389786386</v>
+        <v>4.350565598542524</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>4.399712606941031</v>
+        <v>4.341858110210418</v>
       </c>
       <c r="C182">
-        <v>4.341973823607509</v>
+        <v>4.324757628160797</v>
       </c>
       <c r="D182">
-        <v>4.394996258835279</v>
+        <v>4.329318097548764</v>
       </c>
       <c r="E182">
-        <v>4.413473684706958</v>
+        <v>4.320087404921507</v>
       </c>
       <c r="F182">
-        <v>4.354573995291469</v>
+        <v>4.335983919792762</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>4.385009394386464</v>
+        <v>4.327540706563441</v>
       </c>
       <c r="C183">
-        <v>4.327875995883897</v>
+        <v>4.310651019562602</v>
       </c>
       <c r="D183">
-        <v>4.381294178673001</v>
+        <v>4.316047053495386</v>
       </c>
       <c r="E183">
-        <v>4.400039546948365</v>
+        <v>4.305660435659236</v>
       </c>
       <c r="F183">
-        <v>4.340617349272684</v>
+        <v>4.321401787886456</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>4.37029629270237</v>
+        <v>4.313229763190296</v>
       </c>
       <c r="C184">
-        <v>4.313784876307788</v>
+        <v>4.296548956768502</v>
       </c>
       <c r="D184">
-        <v>4.367586814822169</v>
+        <v>4.302785425038025</v>
       </c>
       <c r="E184">
-        <v>4.386595789195693</v>
+        <v>4.291235274483657</v>
       </c>
       <c r="F184">
-        <v>4.326674405051298</v>
+        <v>4.306819768571199</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>4.355574088731244</v>
+        <v>4.298925717034039</v>
       </c>
       <c r="C185">
-        <v>4.299700939983548</v>
+        <v>4.282451883992706</v>
       </c>
       <c r="D185">
-        <v>4.35387489670708</v>
+        <v>4.289533702654248</v>
       </c>
       <c r="E185">
-        <v>4.373143249320388</v>
+        <v>4.276812627817845</v>
       </c>
       <c r="F185">
-        <v>4.312745583759281</v>
+        <v>4.292238401392144</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>4.340843547793426</v>
+        <v>4.284628984249538</v>
       </c>
       <c r="C186">
-        <v>4.285624639882275</v>
+        <v>4.268360225716867</v>
       </c>
       <c r="D186">
-        <v>4.340159129258615</v>
+        <v>4.276292358154857</v>
       </c>
       <c r="E186">
-        <v>4.359682742539365</v>
+        <v>4.262393178219933</v>
       </c>
       <c r="F186">
-        <v>4.298831291854484</v>
+        <v>4.277658197667526</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>4.326105407138172</v>
+        <v>4.270339959319609</v>
       </c>
       <c r="C187">
-        <v>4.271556408629651</v>
+        <v>4.254274387170532</v>
       </c>
       <c r="D187">
-        <v>4.326440192614195</v>
+        <v>4.263061836692635</v>
       </c>
       <c r="E187">
-        <v>4.346215058772086</v>
+        <v>4.247977584129127</v>
       </c>
       <c r="F187">
-        <v>4.28493191665534</v>
+        <v>4.263079654551897</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>4.311360373710995</v>
+        <v>4.25605902097185</v>
       </c>
       <c r="C188">
-        <v>4.257496662923408</v>
+        <v>4.2401947555812</v>
       </c>
       <c r="D188">
-        <v>4.312718733441713</v>
+        <v>4.249842577376977</v>
       </c>
       <c r="E188">
-        <v>4.332740964060013</v>
+        <v>4.233566478686376</v>
       </c>
       <c r="F188">
-        <v>4.271047824828099</v>
+        <v>4.248503246991593</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>4.296609133505517</v>
+        <v>4.241786532393622</v>
       </c>
       <c r="C189">
-        <v>4.243445800048378</v>
+        <v>4.22612170070026</v>
       </c>
       <c r="D189">
-        <v>4.298995397985602</v>
+        <v>4.23663498854049</v>
       </c>
       <c r="E189">
-        <v>4.319261195341613</v>
+        <v>4.219160474594691</v>
       </c>
       <c r="F189">
-        <v>4.257179370110679</v>
+        <v>4.233929425086507</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>4.281852349024862</v>
+        <v>4.227522838588778</v>
       </c>
       <c r="C190">
-        <v>4.229404199567393</v>
+        <v>4.212055575749693</v>
       </c>
       <c r="D190">
-        <v>4.285270806435356</v>
+        <v>4.223439459289658</v>
       </c>
       <c r="E190">
-        <v>4.3057764673522</v>
+        <v>4.204760161584063</v>
       </c>
       <c r="F190">
-        <v>4.24332688969546</v>
+        <v>4.219358624402161</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>4.267090657558267</v>
+        <v>4.213268267849439</v>
       </c>
       <c r="C191">
-        <v>4.215372227142128</v>
+        <v>4.197996718153269</v>
       </c>
       <c r="D191">
-        <v>4.271545560357414</v>
+        <v>4.210256373440655</v>
       </c>
       <c r="E191">
-        <v>4.29228747963571</v>
+        <v>4.190366106875815</v>
       </c>
       <c r="F191">
-        <v>4.229490702986284</v>
+        <v>4.204791262703245</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>4.252324673186155</v>
+        <v>4.199023137135462</v>
       </c>
       <c r="C192">
-        <v>4.201350231416216</v>
+        <v>4.18394545013122</v>
       </c>
       <c r="D192">
-        <v>4.257820227216192</v>
+        <v>4.197086098038525</v>
       </c>
       <c r="E192">
-        <v>4.278794908686097</v>
+        <v>4.175978861070523</v>
       </c>
       <c r="F192">
-        <v>4.215671118155716</v>
+        <v>4.19022773859326</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>4.237554992040447</v>
+        <v>4.184787748028147</v>
       </c>
       <c r="C193">
-        <v>4.187338545623557</v>
+        <v>4.169902079631191</v>
       </c>
       <c r="D193">
-        <v>4.244095376029583</v>
+        <v>4.183928980725653</v>
       </c>
       <c r="E193">
-        <v>4.265299407650692</v>
+        <v>4.161598955487161</v>
       </c>
       <c r="F193">
-        <v>4.201868429051619</v>
+        <v>4.175668433493154</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>4.222782188481276</v>
+        <v>4.170562385292647</v>
       </c>
       <c r="C194">
-        <v>4.17333749081581</v>
+        <v>4.155866900679902</v>
       </c>
       <c r="D194">
-        <v>4.230371552361325</v>
+        <v>4.170785355447518</v>
       </c>
       <c r="E194">
-        <v>4.251801596353925</v>
+        <v>4.14722690194479</v>
       </c>
       <c r="F194">
-        <v>4.188082914025399</v>
+        <v>4.161113715896794</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>4.208006813735393</v>
+        <v>4.156347325250369</v>
       </c>
       <c r="C195">
-        <v>4.159347373157109</v>
+        <v>4.141840194296615</v>
       </c>
       <c r="D195">
-        <v>4.216649285613726</v>
+        <v>4.157655544057533</v>
       </c>
       <c r="E195">
-        <v>4.23830209632294</v>
+        <v>4.132863188457456</v>
       </c>
       <c r="F195">
-        <v>4.174314841835933</v>
+        <v>4.146563938210822</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>4.193229404384462</v>
+        <v>4.142142831034882</v>
       </c>
       <c r="C196">
-        <v>4.145368485427457</v>
+        <v>4.127822228850952</v>
       </c>
       <c r="D196">
-        <v>4.202929082069145</v>
+        <v>4.144539856185631</v>
       </c>
       <c r="E196">
-        <v>4.224801503613655</v>
+        <v>4.118508296611047</v>
       </c>
       <c r="F196">
-        <v>4.160564468772812</v>
+        <v>4.132019435041465</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>4.178450477817658</v>
+        <v>4.127949150558244</v>
       </c>
       <c r="C197">
-        <v>4.131401109717626</v>
+        <v>4.113813260800886</v>
       </c>
       <c r="D197">
-        <v>4.18921143855813</v>
+        <v>4.131438586830525</v>
       </c>
       <c r="E197">
-        <v>4.211300397199318</v>
+        <v>4.104162689389605</v>
       </c>
       <c r="F197">
-        <v>4.146832037660858</v>
+        <v>4.117480531811694</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>4.163670530893602</v>
+        <v>4.113766524049796</v>
       </c>
       <c r="C198">
-        <v>4.117445515108584</v>
+        <v>4.099813535158926</v>
       </c>
       <c r="D198">
-        <v>4.175496837182976</v>
+        <v>4.11835201754264</v>
       </c>
       <c r="E198">
-        <v>4.197799323344941</v>
+        <v>4.089826813673383</v>
       </c>
       <c r="F198">
-        <v>4.13311778307566</v>
+        <v>4.102947539927771</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>4.14889004601935</v>
+        <v>4.099595180549017</v>
       </c>
       <c r="C199">
-        <v>4.103501959064774</v>
+        <v>4.08582328598045</v>
       </c>
       <c r="D199">
-        <v>4.16178574486386</v>
+        <v>4.105280419495621</v>
       </c>
       <c r="E199">
-        <v>4.184298827893564</v>
+        <v>4.075501086390709</v>
       </c>
       <c r="F199">
-        <v>4.11942192874006</v>
+        <v>4.088420755009444</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>4.134109489658949</v>
+        <v>4.085435337223861</v>
       </c>
       <c r="C200">
-        <v>4.08957068967922</v>
+        <v>4.071842737001546</v>
       </c>
       <c r="D200">
-        <v>4.148078611425209</v>
+        <v>4.092224052267619</v>
       </c>
       <c r="E200">
-        <v>4.17079943691027</v>
+        <v>4.061185930111855</v>
       </c>
       <c r="F200">
-        <v>4.105744686739507</v>
+        <v>4.073900463595364</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>4.119329311171172</v>
+        <v>4.071287201851839</v>
       </c>
       <c r="C201">
-        <v>4.075651943670595</v>
+        <v>4.057872101909942</v>
       </c>
       <c r="D201">
-        <v>4.134375873624573</v>
+        <v>4.079183163999013</v>
       </c>
       <c r="E201">
-        <v>4.157301660217716</v>
+        <v>4.046881747418986</v>
       </c>
       <c r="F201">
-        <v>4.092086261991733</v>
+        <v>4.059386941010311</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>4.104549944099552</v>
+        <v>4.057150974183304</v>
       </c>
       <c r="C202">
-        <v>4.061745947674364</v>
+        <v>4.043911585012203</v>
       </c>
       <c r="D202">
-        <v>4.120677958317175</v>
+        <v>4.066157994608335</v>
       </c>
       <c r="E202">
-        <v>4.143805987851843</v>
+        <v>4.032588928313369</v>
       </c>
       <c r="F202">
-        <v>4.078446849989617</v>
+        <v>4.044880449940007</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>4.089771809782313</v>
+        <v>4.043026844049304</v>
       </c>
       <c r="C203">
-        <v>4.047852920127707</v>
+        <v>4.029961381475787</v>
       </c>
       <c r="D203">
-        <v>4.106985278634479</v>
+        <v>4.053148772883037</v>
       </c>
       <c r="E203">
-        <v>4.130312895568566</v>
+        <v>4.01830783565913</v>
       </c>
       <c r="F203">
-        <v>4.064826636221146</v>
+        <v>4.030381241882634</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>4.074995314792007</v>
+        <v>4.028914991611134</v>
       </c>
       <c r="C204">
-        <v>4.033973068634348</v>
+        <v>4.016021677894796</v>
       </c>
       <c r="D204">
-        <v>4.093298234280293</v>
+        <v>4.040155718307174</v>
       </c>
       <c r="E204">
-        <v>4.116822849468472</v>
+        <v>4.004038836937114</v>
       </c>
       <c r="F204">
-        <v>4.051225799903465</v>
+        <v>4.015889560785513</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>4.060220849860714</v>
+        <v>4.014815590986228</v>
       </c>
       <c r="C205">
-        <v>4.020106592208498</v>
+        <v>4.002092652587877</v>
       </c>
       <c r="D205">
-        <v>4.079617211002952</v>
+        <v>4.027179041584088</v>
       </c>
       <c r="E205">
-        <v>4.103336299948128</v>
+        <v>3.989782282329422</v>
       </c>
       <c r="F205">
-        <v>4.037644511878399</v>
+        <v>4.001405640053239</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>4.045448795927569</v>
+        <v>4.000728807956335</v>
       </c>
       <c r="C206">
-        <v>4.006253683755513</v>
+        <v>3.98817447600524</v>
       </c>
       <c r="D206">
-        <v>4.065942587973847</v>
+        <v>4.014218943418634</v>
       </c>
       <c r="E206">
-        <v>4.089853683120573</v>
+        <v>3.975538510980592</v>
       </c>
       <c r="F206">
-        <v>4.024082933079285</v>
+        <v>3.986929701650791</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>4.030679520879118</v>
+        <v>3.986654798898007</v>
       </c>
       <c r="C207">
-        <v>3.992414528299363</v>
+        <v>3.974267311133018</v>
       </c>
       <c r="D207">
-        <v>4.052274732092448</v>
+        <v>4.001275611165271</v>
       </c>
       <c r="E207">
-        <v>4.076375418080732</v>
+        <v>3.96130784405642</v>
       </c>
       <c r="F207">
-        <v>4.010541220909953</v>
+        <v>3.97246196176034</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>4.015913378597943</v>
+        <v>3.972593715531458</v>
       </c>
       <c r="C208">
-        <v>3.978589303679243</v>
+        <v>3.960371313733971</v>
       </c>
       <c r="D208">
-        <v>4.038613999356127</v>
+        <v>3.988349240482806</v>
       </c>
       <c r="E208">
-        <v>4.062901918063628</v>
+        <v>3.947090598832648</v>
       </c>
       <c r="F208">
-        <v>3.997019525603806</v>
+        <v>3.958002627566442</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>4.001150713193093</v>
+        <v>3.958545702340214</v>
       </c>
       <c r="C209">
-        <v>3.964778172920679</v>
+        <v>3.946486632816521</v>
       </c>
       <c r="D209">
-        <v>4.024960729273589</v>
+        <v>3.97543999974267</v>
       </c>
       <c r="E209">
-        <v>4.049433582214493</v>
+        <v>3.932887081520311</v>
       </c>
       <c r="F209">
-        <v>3.983517991743166</v>
+        <v>3.943551896238061</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>3.986391858020946</v>
+        <v>3.944510895638459</v>
       </c>
       <c r="C210">
-        <v>3.950981303190185</v>
+        <v>3.932613410802215</v>
       </c>
       <c r="D210">
-        <v>4.011315260034635</v>
+        <v>3.962548071968969</v>
       </c>
       <c r="E210">
-        <v>4.03597079849218</v>
+        <v>3.918697588174416</v>
       </c>
       <c r="F210">
-        <v>3.970036753947215</v>
+        <v>3.92910995908259</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3.971637134825461</v>
+        <v>3.930489426932255</v>
       </c>
       <c r="C211">
-        <v>3.937198852409118</v>
+        <v>3.918751783954684</v>
       </c>
       <c r="D211">
-        <v>3.997677917623113</v>
+        <v>3.949673611562614</v>
       </c>
       <c r="E211">
-        <v>4.022513938574306</v>
+        <v>3.904522403680785</v>
       </c>
       <c r="F211">
-        <v>3.956575942099263</v>
+        <v>3.914677000217439</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>3.956886854588745</v>
+        <v>3.91648142202344</v>
       </c>
       <c r="C212">
-        <v>3.92343097334342</v>
+        <v>3.904901882570698</v>
       </c>
       <c r="D212">
-        <v>3.984049019189341</v>
+        <v>3.93681678464531</v>
       </c>
       <c r="E212">
-        <v>4.009063369216332</v>
+        <v>3.890361805392219</v>
       </c>
       <c r="F212">
-        <v>3.94313568553355</v>
+        <v>3.900253195869368</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>3.942141320103285</v>
+        <v>3.902487000455279</v>
       </c>
       <c r="C213">
-        <v>3.909677805612881</v>
+        <v>3.891063831308305</v>
       </c>
       <c r="D213">
-        <v>3.970428866190867</v>
+        <v>3.923977735516626</v>
       </c>
       <c r="E213">
-        <v>3.995619445722124</v>
+        <v>3.876216062790698</v>
       </c>
       <c r="F213">
-        <v>3.929716107177416</v>
+        <v>3.885838715254883</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3.927400824170828</v>
+        <v>3.888506276341237</v>
       </c>
       <c r="C214">
-        <v>3.895939483807377</v>
+        <v>3.877237749443272</v>
       </c>
       <c r="D214">
-        <v>3.956817758572163</v>
+        <v>3.91115661374476</v>
       </c>
       <c r="E214">
-        <v>3.982182513517575</v>
+        <v>3.862085437108048</v>
       </c>
       <c r="F214">
-        <v>3.916317326021164</v>
+        <v>3.871433722577305</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>3.912665648873222</v>
+        <v>3.874539359504997</v>
       </c>
       <c r="C215">
-        <v>3.882216145898692</v>
+        <v>3.863423751072952</v>
       </c>
       <c r="D215">
-        <v>3.943215986382542</v>
+        <v>3.898353555522237</v>
       </c>
       <c r="E215">
-        <v>3.968752904148567</v>
+        <v>3.847970177282656</v>
       </c>
       <c r="F215">
-        <v>3.902939439624375</v>
+        <v>3.857038375441161</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>3.897936069698376</v>
+        <v>3.860586354444252</v>
       </c>
       <c r="C216">
-        <v>3.868507921247654</v>
+        <v>3.849621945444831</v>
       </c>
       <c r="D216">
-        <v>3.929623831378669</v>
+        <v>3.885568694976277</v>
       </c>
       <c r="E216">
-        <v>3.955330940385582</v>
+        <v>3.83387052558001</v>
       </c>
       <c r="F216">
-        <v>3.88958256235071</v>
+        <v>3.84265282419249</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>3.883212353331008</v>
+        <v>3.846647359872537</v>
       </c>
       <c r="C217">
-        <v>3.854814934515049</v>
+        <v>3.8358324370755</v>
       </c>
       <c r="D217">
-        <v>3.916041565424679</v>
+        <v>3.872802161346578</v>
       </c>
       <c r="E217">
-        <v>3.941916940037181</v>
+        <v>3.819786720391304</v>
       </c>
       <c r="F217">
-        <v>3.876246797515942</v>
+        <v>3.828277215553027</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>3.868494757036981</v>
+        <v>3.832722471687733</v>
       </c>
       <c r="C218">
-        <v>3.841137294470896</v>
+        <v>3.822055326071294</v>
       </c>
       <c r="D218">
-        <v>3.902469453915645</v>
+        <v>3.860054074366761</v>
       </c>
       <c r="E218">
-        <v>3.928511210398096</v>
+        <v>3.805718991469682</v>
       </c>
       <c r="F218">
-        <v>3.862932244951333</v>
+        <v>3.813911690558105</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>3.853783531471486</v>
+        <v>3.818811781162775</v>
       </c>
       <c r="C219">
-        <v>3.827475119805758</v>
+        <v>3.808290708252705</v>
       </c>
       <c r="D219">
-        <v>3.888907755999545</v>
+        <v>3.847324557235193</v>
       </c>
       <c r="E219">
-        <v>3.915114049371318</v>
+        <v>3.791667560168931</v>
       </c>
       <c r="F219">
-        <v>3.849638996891676</v>
+        <v>3.799556383822081</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3.839078920095433</v>
+        <v>3.804915373954162</v>
       </c>
       <c r="C220">
-        <v>3.813828520135086</v>
+        <v>3.79453867541186</v>
       </c>
       <c r="D220">
-        <v>3.875356723326333</v>
+        <v>3.834613716169359</v>
       </c>
       <c r="E220">
-        <v>3.901725743030559</v>
+        <v>3.777632640568902</v>
       </c>
       <c r="F220">
-        <v>3.836367138216389</v>
+        <v>3.785211426346662</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3.824381158562608</v>
+        <v>3.791033333500489</v>
       </c>
       <c r="C221">
-        <v>3.800197601249378</v>
+        <v>3.78079931547542</v>
       </c>
       <c r="D221">
-        <v>3.861816600198867</v>
+        <v>3.821921668114566</v>
       </c>
       <c r="E221">
-        <v>3.888346575201941</v>
+        <v>3.763614443206559</v>
       </c>
       <c r="F221">
-        <v>3.823116759610554</v>
+        <v>3.770876944590459</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>3.809690475270745</v>
+        <v>3.777165739112877</v>
       </c>
       <c r="C222">
-        <v>3.786582462450959</v>
+        <v>3.767072712674737</v>
       </c>
       <c r="D222">
-        <v>3.848287624074807</v>
+        <v>3.809248509680571</v>
       </c>
       <c r="E222">
-        <v>3.874976820130874</v>
+        <v>3.749613171647492</v>
       </c>
       <c r="F222">
-        <v>3.809887944750146</v>
+        <v>3.756553059260577</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>3.795007093177076</v>
+        <v>3.763312666099325</v>
       </c>
       <c r="C223">
-        <v>3.772983199064363</v>
+        <v>3.753358947768322</v>
       </c>
       <c r="D223">
-        <v>3.834770027566204</v>
+        <v>3.796594348845663</v>
       </c>
       <c r="E223">
-        <v>3.86161674489443</v>
+        <v>3.735629022134103</v>
       </c>
       <c r="F223">
-        <v>3.796680774355345</v>
+        <v>3.742239886650261</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>3.780331228353422</v>
+        <v>3.749474186672124</v>
       </c>
       <c r="C224">
-        <v>3.759399906270102</v>
+        <v>3.73965809813593</v>
       </c>
       <c r="D224">
-        <v>3.821264036944351</v>
+        <v>3.783959275432352</v>
       </c>
       <c r="E224">
-        <v>3.848266604983789</v>
+        <v>3.721662182674235</v>
       </c>
       <c r="F224">
-        <v>3.783495321346732</v>
+        <v>3.727937540939939</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>3.765663088545029</v>
+        <v>3.73565037008156</v>
       </c>
       <c r="C225">
-        <v>3.745832674424076</v>
+        <v>3.725970237995256</v>
       </c>
       <c r="D225">
-        <v>3.807769872062653</v>
+        <v>3.771343386883251</v>
       </c>
       <c r="E225">
-        <v>3.834926653842655</v>
+        <v>3.707712840473736</v>
       </c>
       <c r="F225">
-        <v>3.77033166017757</v>
+        <v>3.713646132141733</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>3.751002878883618</v>
+        <v>3.721841282231029</v>
       </c>
       <c r="C226">
-        <v>3.732281590811262</v>
+        <v>3.712295438477108</v>
       </c>
       <c r="D226">
-        <v>3.794287744141369</v>
+        <v>3.758746762908257</v>
       </c>
       <c r="E226">
-        <v>3.821597137105844</v>
+        <v>3.693781175777853</v>
       </c>
       <c r="F226">
-        <v>3.757189862350556</v>
+        <v>3.699365767087113</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>3.736350798242267</v>
+        <v>3.708046985913665</v>
       </c>
       <c r="C227">
-        <v>3.718746738592589</v>
+        <v>3.698633767943562</v>
       </c>
       <c r="D227">
-        <v>3.780817863506815</v>
+        <v>3.746169497548425</v>
       </c>
       <c r="E227">
-        <v>3.808278293910825</v>
+        <v>3.679867363514255</v>
       </c>
       <c r="F227">
-        <v>3.74406999620001</v>
+        <v>3.685096546138354</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3.721707040579282</v>
+        <v>3.694267541721556</v>
       </c>
       <c r="C228">
-        <v>3.705228199755422</v>
+        <v>3.684985291867619</v>
       </c>
       <c r="D228">
-        <v>3.767360433756006</v>
+        <v>3.733611680898731</v>
       </c>
       <c r="E228">
-        <v>3.794970355563132</v>
+        <v>3.665971572410533</v>
       </c>
       <c r="F228">
-        <v>3.730972127547469</v>
+        <v>3.670838566543754</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3.707071794601783</v>
+        <v>3.680503007416247</v>
       </c>
       <c r="C229">
-        <v>3.691726053281144</v>
+        <v>3.67135007320796</v>
       </c>
       <c r="D229">
-        <v>3.753915653565158</v>
+        <v>3.721073389234371</v>
       </c>
       <c r="E229">
-        <v>3.78167354766806</v>
+        <v>3.652093968568145</v>
       </c>
       <c r="F229">
-        <v>3.717896319500605</v>
+        <v>3.656591926952638</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3.692445237591372</v>
+        <v>3.666753437531354</v>
       </c>
       <c r="C230">
-        <v>3.678240375883189</v>
+        <v>3.657728172577866</v>
       </c>
       <c r="D230">
-        <v>3.740483713355661</v>
+        <v>3.708554693421237</v>
       </c>
       <c r="E230">
-        <v>3.768388091587989</v>
+        <v>3.638234713020895</v>
       </c>
       <c r="F230">
-        <v>3.704842633916174</v>
+        <v>3.642356721559448</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>3.677827551898413</v>
+        <v>3.653018885142196</v>
       </c>
       <c r="C231">
-        <v>3.664771239043101</v>
+        <v>3.644119647793473</v>
       </c>
       <c r="D231">
-        <v>3.727064802910144</v>
+        <v>3.696055666076346</v>
       </c>
       <c r="E231">
-        <v>3.755114202501767</v>
+        <v>3.624393962381867</v>
       </c>
       <c r="F231">
-        <v>3.691811130503377</v>
+        <v>3.628133042355884</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3.663218912463979</v>
+        <v>3.639299400857427</v>
       </c>
       <c r="C232">
-        <v>3.651318711158021</v>
+        <v>3.630524554876166</v>
       </c>
       <c r="D232">
-        <v>3.71365910617229</v>
+        <v>3.683576378079493</v>
       </c>
       <c r="E232">
-        <v>3.741852089656477</v>
+        <v>3.610571866169122</v>
       </c>
       <c r="F232">
-        <v>3.678801867299185</v>
+        <v>3.613920972834556</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3.648619490538689</v>
+        <v>3.625595032322544</v>
       </c>
       <c r="C233">
-        <v>3.63788286261134</v>
+        <v>3.616942947534545</v>
       </c>
       <c r="D233">
-        <v>3.700266802823684</v>
+        <v>3.671116897541087</v>
       </c>
       <c r="E233">
-        <v>3.728601955049531</v>
+        <v>3.596768573628492</v>
       </c>
       <c r="F233">
-        <v>3.665814893561409</v>
+        <v>3.599720593725328</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3.634029453431792</v>
+        <v>3.611905825863901</v>
       </c>
       <c r="C234">
-        <v>3.624463759871915</v>
+        <v>3.603374877247467</v>
       </c>
       <c r="D234">
-        <v>3.686888066108017</v>
+        <v>3.658677289835137</v>
       </c>
       <c r="E234">
-        <v>3.715363998942622</v>
+        <v>3.582984228951696</v>
       </c>
       <c r="F234">
-        <v>3.652850261246012</v>
+        <v>3.585531991454835</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>3.619448951003865</v>
+        <v>3.598231825740188</v>
       </c>
       <c r="C235">
-        <v>3.611061467519698</v>
+        <v>3.589820393845843</v>
       </c>
       <c r="D235">
-        <v>3.673523066868869</v>
+        <v>3.646257617847962</v>
       </c>
       <c r="E235">
-        <v>3.70213841567696</v>
+        <v>3.569218972750529</v>
       </c>
       <c r="F235">
-        <v>3.639908024449843</v>
+        <v>3.57135524655974</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>3.604878147788303</v>
+        <v>3.584573073989245</v>
       </c>
       <c r="C236">
-        <v>3.597676045627061</v>
+        <v>3.576279545096144</v>
       </c>
       <c r="D236">
-        <v>3.660171972241906</v>
+        <v>3.633857942197638</v>
       </c>
       <c r="E236">
-        <v>3.688925395095587</v>
+        <v>3.555472940293666</v>
       </c>
       <c r="F236">
-        <v>3.626988233673949</v>
+        <v>3.557190437704539</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>3.59031719843333</v>
+        <v>3.570929610897405</v>
       </c>
       <c r="C237">
-        <v>3.584307555684677</v>
+        <v>3.562752377060734</v>
       </c>
       <c r="D237">
-        <v>3.646834945235146</v>
+        <v>3.621478321309802</v>
       </c>
       <c r="E237">
-        <v>3.675725119526438</v>
+        <v>3.541746265591141</v>
       </c>
       <c r="F237">
-        <v>3.614090938467106</v>
+        <v>3.543037637405388</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>3.575766254496011</v>
+        <v>3.557301475312349</v>
       </c>
       <c r="C238">
-        <v>3.570956056445826</v>
+        <v>3.549238934212487</v>
       </c>
       <c r="D238">
-        <v>3.633512144346696</v>
+        <v>3.60911881143261</v>
       </c>
       <c r="E238">
-        <v>3.662537770325417</v>
+        <v>3.528039078791147</v>
       </c>
       <c r="F238">
-        <v>3.601216187627464</v>
+        <v>3.5288969157187</v>
       </c>
     </row>
   </sheetData>
